--- a/RND/BTN/Use case/Topic-2-UseCase.xlsx
+++ b/RND/BTN/Use case/Topic-2-UseCase.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Cover" sheetId="2" r:id="rId2"/>
     <sheet name="Manage User" sheetId="3" r:id="rId3"/>
     <sheet name="Register" sheetId="5" r:id="rId4"/>
-    <sheet name="See student status" sheetId="19" r:id="rId5"/>
-    <sheet name="Sort list of students" sheetId="20" r:id="rId6"/>
-    <sheet name="Activity Diagram" sheetId="17" r:id="rId7"/>
+    <sheet name="TuDHM-Login" sheetId="21" r:id="rId5"/>
+    <sheet name="See student status" sheetId="19" r:id="rId6"/>
+    <sheet name="Sort list of students" sheetId="20" r:id="rId7"/>
+    <sheet name="Activity Diagram" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="160">
   <si>
     <t xml:space="preserve">                                                       Student Project Allocation and Management with Online Testing System (SPM)</t>
   </si>
@@ -432,6 +433,75 @@
   <si>
     <t>5.1</t>
   </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>TuDHM</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị màn hình đăng nhập để Studen nhập tên tài khoản và mật khẩu</t>
+  </si>
+  <si>
+    <t>Nếu tài khoản nhập vào sai hệ thống đưa ra thông báo người dùng nhập mật khẩu hoặc tài khoản không tồn tại trong hệ thống</t>
+  </si>
+  <si>
+    <t>Hệ thống đưa ra gợi ý 1. Tìm lại mật khẩu 2. tạo tài khoản mới</t>
+  </si>
+  <si>
+    <t>Sau khi đăng nhập vào hệ thống thành công, giao diện làm việc chính sẽ hiện ra.</t>
+  </si>
+  <si>
+    <t>Tài khoản không tồn tại</t>
+  </si>
+  <si>
+    <t>Người dùng nhập sai mật khẩu</t>
+  </si>
+  <si>
+    <t>Hệ thống hiện thị giao diện báo sai mật khâu và yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Khi người dùng  nhập lại đúng trường dữ liệu đó thì màu sắc của trường dữ liệu đó sẽ trở lại bình thường.</t>
+  </si>
+  <si>
+    <t>Các thông tin bị sai nếu :</t>
+  </si>
+  <si>
+    <t>Thông tin nhập vào không tồn tại trong hệ thống</t>
+  </si>
+  <si>
+    <t>Số lần nhập mật khẩu quá mức cho phép</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào hệ thống với tài khoản của mình</t>
+  </si>
+  <si>
+    <t>Tiền điều kiện: Người dùng đã đăng ký tài khoản trên hệ thống</t>
+  </si>
+  <si>
+    <t>Actor:      Student ( người dùng )</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>Người dùng đóng vai trò là người dùng hệ thống</t>
+  </si>
+  <si>
+    <t>Vai trò của Người dùng</t>
+  </si>
+  <si>
+    <t>Xác nhận thông tin nhập vào</t>
+  </si>
+  <si>
+    <t>Hệ thống sẽ kiểm tra tài khoàn và khẩu khẩu của Student sau đó trả kết quả về cho người dùng</t>
+  </si>
+  <si>
+    <t>Nếu tài khoản nhập vào đúng.Người dùng đăng nhập thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>Hủy thao tác với chức năng đăng nhập khi ấn "hủy bỏ"</t>
+  </si>
 </sst>
 </file>
 
@@ -446,7 +516,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,7 +524,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -484,7 +554,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -493,7 +563,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1328,80 +1398,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -1460,6 +1459,24 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1478,25 +1495,64 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,7 +1567,21 @@
     <xf numFmtId="165" fontId="11" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -2098,22 +2168,22 @@
       <selection activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="64.625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="128" customFormat="1" ht="15">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:5" s="129" customFormat="1">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="128" customFormat="1">
-      <c r="A2" s="128" t="s">
+    <row r="2" spans="1:5" s="129" customFormat="1">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2232,318 +2302,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD98"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="31" width="3.125" style="18"/>
-    <col min="32" max="32" width="6.375" style="18" customWidth="1"/>
-    <col min="33" max="45" width="3.125" style="18"/>
-    <col min="46" max="46" width="6.25" style="18" customWidth="1"/>
-    <col min="47" max="49" width="3.125" style="18"/>
+    <col min="1" max="31" width="3.140625" style="18"/>
+    <col min="32" max="32" width="6.42578125" style="18" customWidth="1"/>
+    <col min="33" max="45" width="3.140625" style="18"/>
+    <col min="46" max="46" width="6.28515625" style="18" customWidth="1"/>
+    <col min="47" max="49" width="3.140625" style="18"/>
     <col min="50" max="50" width="6" style="18" customWidth="1"/>
-    <col min="51" max="305" width="3.125" style="18"/>
+    <col min="51" max="305" width="3.140625" style="18"/>
     <col min="306" max="306" width="6" style="18" customWidth="1"/>
-    <col min="307" max="561" width="3.125" style="18"/>
+    <col min="307" max="561" width="3.140625" style="18"/>
     <col min="562" max="562" width="6" style="18" customWidth="1"/>
-    <col min="563" max="817" width="3.125" style="18"/>
+    <col min="563" max="817" width="3.140625" style="18"/>
     <col min="818" max="818" width="6" style="18" customWidth="1"/>
-    <col min="819" max="1073" width="3.125" style="18"/>
+    <col min="819" max="1073" width="3.140625" style="18"/>
     <col min="1074" max="1074" width="6" style="18" customWidth="1"/>
-    <col min="1075" max="1329" width="3.125" style="18"/>
+    <col min="1075" max="1329" width="3.140625" style="18"/>
     <col min="1330" max="1330" width="6" style="18" customWidth="1"/>
-    <col min="1331" max="1585" width="3.125" style="18"/>
+    <col min="1331" max="1585" width="3.140625" style="18"/>
     <col min="1586" max="1586" width="6" style="18" customWidth="1"/>
-    <col min="1587" max="1841" width="3.125" style="18"/>
+    <col min="1587" max="1841" width="3.140625" style="18"/>
     <col min="1842" max="1842" width="6" style="18" customWidth="1"/>
-    <col min="1843" max="2097" width="3.125" style="18"/>
+    <col min="1843" max="2097" width="3.140625" style="18"/>
     <col min="2098" max="2098" width="6" style="18" customWidth="1"/>
-    <col min="2099" max="2353" width="3.125" style="18"/>
+    <col min="2099" max="2353" width="3.140625" style="18"/>
     <col min="2354" max="2354" width="6" style="18" customWidth="1"/>
-    <col min="2355" max="2609" width="3.125" style="18"/>
+    <col min="2355" max="2609" width="3.140625" style="18"/>
     <col min="2610" max="2610" width="6" style="18" customWidth="1"/>
-    <col min="2611" max="2865" width="3.125" style="18"/>
+    <col min="2611" max="2865" width="3.140625" style="18"/>
     <col min="2866" max="2866" width="6" style="18" customWidth="1"/>
-    <col min="2867" max="3121" width="3.125" style="18"/>
+    <col min="2867" max="3121" width="3.140625" style="18"/>
     <col min="3122" max="3122" width="6" style="18" customWidth="1"/>
-    <col min="3123" max="3377" width="3.125" style="18"/>
+    <col min="3123" max="3377" width="3.140625" style="18"/>
     <col min="3378" max="3378" width="6" style="18" customWidth="1"/>
-    <col min="3379" max="3633" width="3.125" style="18"/>
+    <col min="3379" max="3633" width="3.140625" style="18"/>
     <col min="3634" max="3634" width="6" style="18" customWidth="1"/>
-    <col min="3635" max="3889" width="3.125" style="18"/>
+    <col min="3635" max="3889" width="3.140625" style="18"/>
     <col min="3890" max="3890" width="6" style="18" customWidth="1"/>
-    <col min="3891" max="4145" width="3.125" style="18"/>
+    <col min="3891" max="4145" width="3.140625" style="18"/>
     <col min="4146" max="4146" width="6" style="18" customWidth="1"/>
-    <col min="4147" max="4401" width="3.125" style="18"/>
+    <col min="4147" max="4401" width="3.140625" style="18"/>
     <col min="4402" max="4402" width="6" style="18" customWidth="1"/>
-    <col min="4403" max="4657" width="3.125" style="18"/>
+    <col min="4403" max="4657" width="3.140625" style="18"/>
     <col min="4658" max="4658" width="6" style="18" customWidth="1"/>
-    <col min="4659" max="4913" width="3.125" style="18"/>
+    <col min="4659" max="4913" width="3.140625" style="18"/>
     <col min="4914" max="4914" width="6" style="18" customWidth="1"/>
-    <col min="4915" max="5169" width="3.125" style="18"/>
+    <col min="4915" max="5169" width="3.140625" style="18"/>
     <col min="5170" max="5170" width="6" style="18" customWidth="1"/>
-    <col min="5171" max="5425" width="3.125" style="18"/>
+    <col min="5171" max="5425" width="3.140625" style="18"/>
     <col min="5426" max="5426" width="6" style="18" customWidth="1"/>
-    <col min="5427" max="5681" width="3.125" style="18"/>
+    <col min="5427" max="5681" width="3.140625" style="18"/>
     <col min="5682" max="5682" width="6" style="18" customWidth="1"/>
-    <col min="5683" max="5937" width="3.125" style="18"/>
+    <col min="5683" max="5937" width="3.140625" style="18"/>
     <col min="5938" max="5938" width="6" style="18" customWidth="1"/>
-    <col min="5939" max="6193" width="3.125" style="18"/>
+    <col min="5939" max="6193" width="3.140625" style="18"/>
     <col min="6194" max="6194" width="6" style="18" customWidth="1"/>
-    <col min="6195" max="6449" width="3.125" style="18"/>
+    <col min="6195" max="6449" width="3.140625" style="18"/>
     <col min="6450" max="6450" width="6" style="18" customWidth="1"/>
-    <col min="6451" max="6705" width="3.125" style="18"/>
+    <col min="6451" max="6705" width="3.140625" style="18"/>
     <col min="6706" max="6706" width="6" style="18" customWidth="1"/>
-    <col min="6707" max="6961" width="3.125" style="18"/>
+    <col min="6707" max="6961" width="3.140625" style="18"/>
     <col min="6962" max="6962" width="6" style="18" customWidth="1"/>
-    <col min="6963" max="7217" width="3.125" style="18"/>
+    <col min="6963" max="7217" width="3.140625" style="18"/>
     <col min="7218" max="7218" width="6" style="18" customWidth="1"/>
-    <col min="7219" max="7473" width="3.125" style="18"/>
+    <col min="7219" max="7473" width="3.140625" style="18"/>
     <col min="7474" max="7474" width="6" style="18" customWidth="1"/>
-    <col min="7475" max="7729" width="3.125" style="18"/>
+    <col min="7475" max="7729" width="3.140625" style="18"/>
     <col min="7730" max="7730" width="6" style="18" customWidth="1"/>
-    <col min="7731" max="7985" width="3.125" style="18"/>
+    <col min="7731" max="7985" width="3.140625" style="18"/>
     <col min="7986" max="7986" width="6" style="18" customWidth="1"/>
-    <col min="7987" max="8241" width="3.125" style="18"/>
+    <col min="7987" max="8241" width="3.140625" style="18"/>
     <col min="8242" max="8242" width="6" style="18" customWidth="1"/>
-    <col min="8243" max="8497" width="3.125" style="18"/>
+    <col min="8243" max="8497" width="3.140625" style="18"/>
     <col min="8498" max="8498" width="6" style="18" customWidth="1"/>
-    <col min="8499" max="8753" width="3.125" style="18"/>
+    <col min="8499" max="8753" width="3.140625" style="18"/>
     <col min="8754" max="8754" width="6" style="18" customWidth="1"/>
-    <col min="8755" max="9009" width="3.125" style="18"/>
+    <col min="8755" max="9009" width="3.140625" style="18"/>
     <col min="9010" max="9010" width="6" style="18" customWidth="1"/>
-    <col min="9011" max="9265" width="3.125" style="18"/>
+    <col min="9011" max="9265" width="3.140625" style="18"/>
     <col min="9266" max="9266" width="6" style="18" customWidth="1"/>
-    <col min="9267" max="9521" width="3.125" style="18"/>
+    <col min="9267" max="9521" width="3.140625" style="18"/>
     <col min="9522" max="9522" width="6" style="18" customWidth="1"/>
-    <col min="9523" max="9777" width="3.125" style="18"/>
+    <col min="9523" max="9777" width="3.140625" style="18"/>
     <col min="9778" max="9778" width="6" style="18" customWidth="1"/>
-    <col min="9779" max="10033" width="3.125" style="18"/>
+    <col min="9779" max="10033" width="3.140625" style="18"/>
     <col min="10034" max="10034" width="6" style="18" customWidth="1"/>
-    <col min="10035" max="10289" width="3.125" style="18"/>
+    <col min="10035" max="10289" width="3.140625" style="18"/>
     <col min="10290" max="10290" width="6" style="18" customWidth="1"/>
-    <col min="10291" max="10545" width="3.125" style="18"/>
+    <col min="10291" max="10545" width="3.140625" style="18"/>
     <col min="10546" max="10546" width="6" style="18" customWidth="1"/>
-    <col min="10547" max="10801" width="3.125" style="18"/>
+    <col min="10547" max="10801" width="3.140625" style="18"/>
     <col min="10802" max="10802" width="6" style="18" customWidth="1"/>
-    <col min="10803" max="11057" width="3.125" style="18"/>
+    <col min="10803" max="11057" width="3.140625" style="18"/>
     <col min="11058" max="11058" width="6" style="18" customWidth="1"/>
-    <col min="11059" max="11313" width="3.125" style="18"/>
+    <col min="11059" max="11313" width="3.140625" style="18"/>
     <col min="11314" max="11314" width="6" style="18" customWidth="1"/>
-    <col min="11315" max="11569" width="3.125" style="18"/>
+    <col min="11315" max="11569" width="3.140625" style="18"/>
     <col min="11570" max="11570" width="6" style="18" customWidth="1"/>
-    <col min="11571" max="11825" width="3.125" style="18"/>
+    <col min="11571" max="11825" width="3.140625" style="18"/>
     <col min="11826" max="11826" width="6" style="18" customWidth="1"/>
-    <col min="11827" max="12081" width="3.125" style="18"/>
+    <col min="11827" max="12081" width="3.140625" style="18"/>
     <col min="12082" max="12082" width="6" style="18" customWidth="1"/>
-    <col min="12083" max="12337" width="3.125" style="18"/>
+    <col min="12083" max="12337" width="3.140625" style="18"/>
     <col min="12338" max="12338" width="6" style="18" customWidth="1"/>
-    <col min="12339" max="12593" width="3.125" style="18"/>
+    <col min="12339" max="12593" width="3.140625" style="18"/>
     <col min="12594" max="12594" width="6" style="18" customWidth="1"/>
-    <col min="12595" max="12849" width="3.125" style="18"/>
+    <col min="12595" max="12849" width="3.140625" style="18"/>
     <col min="12850" max="12850" width="6" style="18" customWidth="1"/>
-    <col min="12851" max="13105" width="3.125" style="18"/>
+    <col min="12851" max="13105" width="3.140625" style="18"/>
     <col min="13106" max="13106" width="6" style="18" customWidth="1"/>
-    <col min="13107" max="13361" width="3.125" style="18"/>
+    <col min="13107" max="13361" width="3.140625" style="18"/>
     <col min="13362" max="13362" width="6" style="18" customWidth="1"/>
-    <col min="13363" max="13617" width="3.125" style="18"/>
+    <col min="13363" max="13617" width="3.140625" style="18"/>
     <col min="13618" max="13618" width="6" style="18" customWidth="1"/>
-    <col min="13619" max="13873" width="3.125" style="18"/>
+    <col min="13619" max="13873" width="3.140625" style="18"/>
     <col min="13874" max="13874" width="6" style="18" customWidth="1"/>
-    <col min="13875" max="14129" width="3.125" style="18"/>
+    <col min="13875" max="14129" width="3.140625" style="18"/>
     <col min="14130" max="14130" width="6" style="18" customWidth="1"/>
-    <col min="14131" max="14385" width="3.125" style="18"/>
+    <col min="14131" max="14385" width="3.140625" style="18"/>
     <col min="14386" max="14386" width="6" style="18" customWidth="1"/>
-    <col min="14387" max="14641" width="3.125" style="18"/>
+    <col min="14387" max="14641" width="3.140625" style="18"/>
     <col min="14642" max="14642" width="6" style="18" customWidth="1"/>
-    <col min="14643" max="14897" width="3.125" style="18"/>
+    <col min="14643" max="14897" width="3.140625" style="18"/>
     <col min="14898" max="14898" width="6" style="18" customWidth="1"/>
-    <col min="14899" max="15153" width="3.125" style="18"/>
+    <col min="14899" max="15153" width="3.140625" style="18"/>
     <col min="15154" max="15154" width="6" style="18" customWidth="1"/>
-    <col min="15155" max="15409" width="3.125" style="18"/>
+    <col min="15155" max="15409" width="3.140625" style="18"/>
     <col min="15410" max="15410" width="6" style="18" customWidth="1"/>
-    <col min="15411" max="15665" width="3.125" style="18"/>
+    <col min="15411" max="15665" width="3.140625" style="18"/>
     <col min="15666" max="15666" width="6" style="18" customWidth="1"/>
-    <col min="15667" max="15921" width="3.125" style="18"/>
+    <col min="15667" max="15921" width="3.140625" style="18"/>
     <col min="15922" max="15922" width="6" style="18" customWidth="1"/>
-    <col min="15923" max="16177" width="3.125" style="18"/>
+    <col min="15923" max="16177" width="3.140625" style="18"/>
     <col min="16178" max="16178" width="6" style="18" customWidth="1"/>
-    <col min="16179" max="16384" width="3.125" style="18"/>
+    <col min="16179" max="16384" width="3.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="130" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="131"/>
-      <c r="AL1" s="132"/>
-      <c r="AM1" s="130" t="s">
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="169"/>
+      <c r="AM1" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="132"/>
-      <c r="AQ1" s="131" t="s">
+      <c r="AN1" s="168"/>
+      <c r="AO1" s="168"/>
+      <c r="AP1" s="169"/>
+      <c r="AQ1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="132"/>
-      <c r="AU1" s="130" t="s">
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="168"/>
+      <c r="AT1" s="169"/>
+      <c r="AU1" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="AV1" s="131"/>
-      <c r="AW1" s="131"/>
-      <c r="AX1" s="132"/>
+      <c r="AV1" s="168"/>
+      <c r="AW1" s="168"/>
+      <c r="AX1" s="169"/>
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="133" t="s">
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="133" t="s">
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="171"/>
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="172"/>
+      <c r="AM2" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="139">
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="172"/>
+      <c r="AQ2" s="176">
         <v>42273</v>
       </c>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="139"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="139"/>
-      <c r="AV2" s="139"/>
-      <c r="AW2" s="139"/>
-      <c r="AX2" s="140"/>
+      <c r="AR2" s="176"/>
+      <c r="AS2" s="176"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="176"/>
+      <c r="AV2" s="176"/>
+      <c r="AW2" s="176"/>
+      <c r="AX2" s="177"/>
     </row>
     <row r="3" spans="1:50" ht="15" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="137"/>
-      <c r="AK3" s="137"/>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
-      <c r="AP3" s="138"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141"/>
-      <c r="AS3" s="141"/>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="141"/>
-      <c r="AV3" s="141"/>
-      <c r="AW3" s="141"/>
-      <c r="AX3" s="142"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="175"/>
+      <c r="AM3" s="173"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="175"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="178"/>
+      <c r="AS3" s="178"/>
+      <c r="AT3" s="179"/>
+      <c r="AU3" s="178"/>
+      <c r="AV3" s="178"/>
+      <c r="AW3" s="178"/>
+      <c r="AX3" s="179"/>
     </row>
     <row r="4" spans="1:50" ht="15" customHeight="1">
       <c r="A4" s="15"/>
@@ -2811,8 +2881,8 @@
       <c r="AW8" s="16"/>
       <c r="AX8" s="17"/>
     </row>
-    <row r="9" spans="1:50" s="154" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="153" t="s">
+    <row r="9" spans="1:50" s="131" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="130" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3090,32 +3160,32 @@
       <c r="C15" s="61">
         <v>1</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="143" t="s">
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="145"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="164"/>
+      <c r="Q15" s="164"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="165"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
@@ -3148,32 +3218,32 @@
       <c r="C16" s="61">
         <v>2</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="143" t="s">
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="145"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="165"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
@@ -3629,53 +3699,53 @@
       <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="152" t="s">
+      <c r="C25" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152" t="s">
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="152" t="s">
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="S25" s="152"/>
-      <c r="T25" s="152"/>
-      <c r="U25" s="152"/>
-      <c r="V25" s="152"/>
-      <c r="W25" s="152"/>
-      <c r="X25" s="152"/>
-      <c r="Y25" s="152"/>
-      <c r="Z25" s="152"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="152"/>
-      <c r="AC25" s="152"/>
-      <c r="AD25" s="152"/>
-      <c r="AE25" s="152"/>
-      <c r="AF25" s="152"/>
-      <c r="AG25" s="152"/>
-      <c r="AH25" s="152"/>
-      <c r="AI25" s="152"/>
-      <c r="AJ25" s="152"/>
-      <c r="AK25" s="152"/>
-      <c r="AL25" s="152"/>
-      <c r="AM25" s="152"/>
-      <c r="AN25" s="152"/>
-      <c r="AO25" s="152"/>
-      <c r="AP25" s="152"/>
-      <c r="AQ25" s="152"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="162"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="162"/>
+      <c r="AJ25" s="162"/>
+      <c r="AK25" s="162"/>
+      <c r="AL25" s="162"/>
+      <c r="AM25" s="162"/>
+      <c r="AN25" s="162"/>
+      <c r="AO25" s="162"/>
+      <c r="AP25" s="162"/>
+      <c r="AQ25" s="162"/>
       <c r="AR25" s="62"/>
       <c r="AS25" s="62"/>
       <c r="AT25" s="16"/>
@@ -3689,13 +3759,13 @@
       <c r="B26" s="71">
         <v>1</v>
       </c>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="175"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="72" t="s">
         <v>26</v>
       </c>
@@ -3708,34 +3778,34 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="176" t="s">
+      <c r="R26" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="177"/>
-      <c r="Z26" s="177"/>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="177"/>
-      <c r="AC26" s="177"/>
-      <c r="AD26" s="177"/>
-      <c r="AE26" s="177"/>
-      <c r="AF26" s="177"/>
-      <c r="AG26" s="177"/>
-      <c r="AH26" s="177"/>
-      <c r="AI26" s="177"/>
-      <c r="AJ26" s="177"/>
-      <c r="AK26" s="177"/>
-      <c r="AL26" s="177"/>
-      <c r="AM26" s="177"/>
-      <c r="AN26" s="177"/>
-      <c r="AO26" s="177"/>
-      <c r="AP26" s="177"/>
-      <c r="AQ26" s="178"/>
+      <c r="S26" s="160"/>
+      <c r="T26" s="160"/>
+      <c r="U26" s="160"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="160"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="160"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="160"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="160"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="160"/>
+      <c r="AO26" s="160"/>
+      <c r="AP26" s="160"/>
+      <c r="AQ26" s="161"/>
       <c r="AR26" s="20"/>
       <c r="AS26" s="20"/>
       <c r="AT26" s="16"/>
@@ -3749,13 +3819,13 @@
       <c r="B27" s="75">
         <v>2</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="76" t="s">
         <v>27</v>
       </c>
@@ -3768,34 +3838,34 @@
       <c r="O27" s="77"/>
       <c r="P27" s="77"/>
       <c r="Q27" s="77"/>
-      <c r="R27" s="149" t="s">
+      <c r="R27" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
-      <c r="U27" s="150"/>
-      <c r="V27" s="150"/>
-      <c r="W27" s="150"/>
-      <c r="X27" s="150"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="150"/>
-      <c r="AA27" s="150"/>
-      <c r="AB27" s="150"/>
-      <c r="AC27" s="150"/>
-      <c r="AD27" s="150"/>
-      <c r="AE27" s="150"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="150"/>
-      <c r="AH27" s="150"/>
-      <c r="AI27" s="150"/>
-      <c r="AJ27" s="150"/>
-      <c r="AK27" s="150"/>
-      <c r="AL27" s="150"/>
-      <c r="AM27" s="150"/>
-      <c r="AN27" s="150"/>
-      <c r="AO27" s="150"/>
-      <c r="AP27" s="150"/>
-      <c r="AQ27" s="151"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="154"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="154"/>
+      <c r="W27" s="154"/>
+      <c r="X27" s="154"/>
+      <c r="Y27" s="154"/>
+      <c r="Z27" s="154"/>
+      <c r="AA27" s="154"/>
+      <c r="AB27" s="154"/>
+      <c r="AC27" s="154"/>
+      <c r="AD27" s="154"/>
+      <c r="AE27" s="154"/>
+      <c r="AF27" s="154"/>
+      <c r="AG27" s="154"/>
+      <c r="AH27" s="154"/>
+      <c r="AI27" s="154"/>
+      <c r="AJ27" s="154"/>
+      <c r="AK27" s="154"/>
+      <c r="AL27" s="154"/>
+      <c r="AM27" s="154"/>
+      <c r="AN27" s="154"/>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
+      <c r="AQ27" s="155"/>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
@@ -3809,13 +3879,13 @@
       <c r="B28" s="75">
         <v>3</v>
       </c>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="150" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="76" t="s">
         <v>28</v>
       </c>
@@ -3828,34 +3898,34 @@
       <c r="O28" s="77"/>
       <c r="P28" s="77"/>
       <c r="Q28" s="77"/>
-      <c r="R28" s="149" t="s">
+      <c r="R28" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="S28" s="150"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="150"/>
-      <c r="V28" s="150"/>
-      <c r="W28" s="150"/>
-      <c r="X28" s="150"/>
-      <c r="Y28" s="150"/>
-      <c r="Z28" s="150"/>
-      <c r="AA28" s="150"/>
-      <c r="AB28" s="150"/>
-      <c r="AC28" s="150"/>
-      <c r="AD28" s="150"/>
-      <c r="AE28" s="150"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="150"/>
-      <c r="AH28" s="150"/>
-      <c r="AI28" s="150"/>
-      <c r="AJ28" s="150"/>
-      <c r="AK28" s="150"/>
-      <c r="AL28" s="150"/>
-      <c r="AM28" s="150"/>
-      <c r="AN28" s="150"/>
-      <c r="AO28" s="150"/>
-      <c r="AP28" s="150"/>
-      <c r="AQ28" s="151"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="155"/>
       <c r="AR28" s="16"/>
       <c r="AS28" s="16"/>
       <c r="AT28" s="20"/>
@@ -3869,13 +3939,13 @@
       <c r="B29" s="75">
         <v>4</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="76" t="s">
         <v>29</v>
       </c>
@@ -3888,34 +3958,34 @@
       <c r="O29" s="77"/>
       <c r="P29" s="77"/>
       <c r="Q29" s="77"/>
-      <c r="R29" s="149" t="s">
+      <c r="R29" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="S29" s="150"/>
-      <c r="T29" s="150"/>
-      <c r="U29" s="150"/>
-      <c r="V29" s="150"/>
-      <c r="W29" s="150"/>
-      <c r="X29" s="150"/>
-      <c r="Y29" s="150"/>
-      <c r="Z29" s="150"/>
-      <c r="AA29" s="150"/>
-      <c r="AB29" s="150"/>
-      <c r="AC29" s="150"/>
-      <c r="AD29" s="150"/>
-      <c r="AE29" s="150"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="150"/>
-      <c r="AH29" s="150"/>
-      <c r="AI29" s="150"/>
-      <c r="AJ29" s="150"/>
-      <c r="AK29" s="150"/>
-      <c r="AL29" s="150"/>
-      <c r="AM29" s="150"/>
-      <c r="AN29" s="150"/>
-      <c r="AO29" s="150"/>
-      <c r="AP29" s="150"/>
-      <c r="AQ29" s="151"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="154"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="154"/>
+      <c r="W29" s="154"/>
+      <c r="X29" s="154"/>
+      <c r="Y29" s="154"/>
+      <c r="Z29" s="154"/>
+      <c r="AA29" s="154"/>
+      <c r="AB29" s="154"/>
+      <c r="AC29" s="154"/>
+      <c r="AD29" s="154"/>
+      <c r="AE29" s="154"/>
+      <c r="AF29" s="154"/>
+      <c r="AG29" s="154"/>
+      <c r="AH29" s="154"/>
+      <c r="AI29" s="154"/>
+      <c r="AJ29" s="154"/>
+      <c r="AK29" s="154"/>
+      <c r="AL29" s="154"/>
+      <c r="AM29" s="154"/>
+      <c r="AN29" s="154"/>
+      <c r="AO29" s="154"/>
+      <c r="AP29" s="154"/>
+      <c r="AQ29" s="155"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
       <c r="AT29" s="20"/>
@@ -3929,13 +3999,13 @@
       <c r="B30" s="75">
         <v>5</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="152"/>
       <c r="H30" s="76" t="s">
         <v>30</v>
       </c>
@@ -3948,34 +4018,34 @@
       <c r="O30" s="77"/>
       <c r="P30" s="77"/>
       <c r="Q30" s="77"/>
-      <c r="R30" s="149" t="s">
+      <c r="R30" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="S30" s="150"/>
-      <c r="T30" s="150"/>
-      <c r="U30" s="150"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="150"/>
-      <c r="X30" s="150"/>
-      <c r="Y30" s="150"/>
-      <c r="Z30" s="150"/>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="150"/>
-      <c r="AH30" s="150"/>
-      <c r="AI30" s="150"/>
-      <c r="AJ30" s="150"/>
-      <c r="AK30" s="150"/>
-      <c r="AL30" s="150"/>
-      <c r="AM30" s="150"/>
-      <c r="AN30" s="150"/>
-      <c r="AO30" s="150"/>
-      <c r="AP30" s="150"/>
-      <c r="AQ30" s="151"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="154"/>
+      <c r="W30" s="154"/>
+      <c r="X30" s="154"/>
+      <c r="Y30" s="154"/>
+      <c r="Z30" s="154"/>
+      <c r="AA30" s="154"/>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="154"/>
+      <c r="AD30" s="154"/>
+      <c r="AE30" s="154"/>
+      <c r="AF30" s="154"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="154"/>
+      <c r="AJ30" s="154"/>
+      <c r="AK30" s="154"/>
+      <c r="AL30" s="154"/>
+      <c r="AM30" s="154"/>
+      <c r="AN30" s="154"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
+      <c r="AQ30" s="155"/>
       <c r="AR30" s="16"/>
       <c r="AS30" s="16"/>
       <c r="AT30" s="20"/>
@@ -3989,13 +4059,13 @@
       <c r="B31" s="75">
         <v>6</v>
       </c>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="150" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="76" t="s">
         <v>31</v>
       </c>
@@ -4008,34 +4078,34 @@
       <c r="O31" s="77"/>
       <c r="P31" s="77"/>
       <c r="Q31" s="77"/>
-      <c r="R31" s="149" t="s">
+      <c r="R31" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="150"/>
-      <c r="T31" s="150"/>
-      <c r="U31" s="150"/>
-      <c r="V31" s="150"/>
-      <c r="W31" s="150"/>
-      <c r="X31" s="150"/>
-      <c r="Y31" s="150"/>
-      <c r="Z31" s="150"/>
-      <c r="AA31" s="150"/>
-      <c r="AB31" s="150"/>
-      <c r="AC31" s="150"/>
-      <c r="AD31" s="150"/>
-      <c r="AE31" s="150"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="150"/>
-      <c r="AH31" s="150"/>
-      <c r="AI31" s="150"/>
-      <c r="AJ31" s="150"/>
-      <c r="AK31" s="150"/>
-      <c r="AL31" s="150"/>
-      <c r="AM31" s="150"/>
-      <c r="AN31" s="150"/>
-      <c r="AO31" s="150"/>
-      <c r="AP31" s="150"/>
-      <c r="AQ31" s="151"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="154"/>
+      <c r="W31" s="154"/>
+      <c r="X31" s="154"/>
+      <c r="Y31" s="154"/>
+      <c r="Z31" s="154"/>
+      <c r="AA31" s="154"/>
+      <c r="AB31" s="154"/>
+      <c r="AC31" s="154"/>
+      <c r="AD31" s="154"/>
+      <c r="AE31" s="154"/>
+      <c r="AF31" s="154"/>
+      <c r="AG31" s="154"/>
+      <c r="AH31" s="154"/>
+      <c r="AI31" s="154"/>
+      <c r="AJ31" s="154"/>
+      <c r="AK31" s="154"/>
+      <c r="AL31" s="154"/>
+      <c r="AM31" s="154"/>
+      <c r="AN31" s="154"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
+      <c r="AQ31" s="155"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
       <c r="AT31" s="20"/>
@@ -4049,13 +4119,13 @@
       <c r="B32" s="79">
         <v>7</v>
       </c>
-      <c r="C32" s="155" t="s">
+      <c r="C32" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="157"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="134"/>
       <c r="H32" s="80" t="s">
         <v>32</v>
       </c>
@@ -4068,34 +4138,34 @@
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
       <c r="Q32" s="81"/>
-      <c r="R32" s="158" t="s">
+      <c r="R32" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="S32" s="159"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="159"/>
-      <c r="X32" s="159"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="159"/>
-      <c r="AB32" s="159"/>
-      <c r="AC32" s="159"/>
-      <c r="AD32" s="159"/>
-      <c r="AE32" s="159"/>
-      <c r="AF32" s="159"/>
-      <c r="AG32" s="159"/>
-      <c r="AH32" s="159"/>
-      <c r="AI32" s="159"/>
-      <c r="AJ32" s="159"/>
-      <c r="AK32" s="159"/>
-      <c r="AL32" s="159"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="159"/>
-      <c r="AO32" s="159"/>
-      <c r="AP32" s="159"/>
-      <c r="AQ32" s="160"/>
+      <c r="S32" s="136"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="136"/>
+      <c r="Y32" s="136"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="136"/>
+      <c r="AD32" s="136"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="136"/>
+      <c r="AJ32" s="136"/>
+      <c r="AK32" s="136"/>
+      <c r="AL32" s="136"/>
+      <c r="AM32" s="136"/>
+      <c r="AN32" s="136"/>
+      <c r="AO32" s="136"/>
+      <c r="AP32" s="136"/>
+      <c r="AQ32" s="137"/>
       <c r="AR32" s="16"/>
       <c r="AS32" s="16"/>
       <c r="AT32" s="20"/>
@@ -4169,13 +4239,13 @@
       <c r="B34" s="94">
         <v>9</v>
       </c>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="163"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="140"/>
       <c r="H34" s="87" t="s">
         <v>33</v>
       </c>
@@ -4188,34 +4258,34 @@
       <c r="O34" s="95"/>
       <c r="P34" s="95"/>
       <c r="Q34" s="95"/>
-      <c r="R34" s="170" t="s">
+      <c r="R34" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="171"/>
-      <c r="T34" s="171"/>
-      <c r="U34" s="171"/>
-      <c r="V34" s="171"/>
-      <c r="W34" s="171"/>
-      <c r="X34" s="171"/>
-      <c r="Y34" s="171"/>
-      <c r="Z34" s="171"/>
-      <c r="AA34" s="171"/>
-      <c r="AB34" s="171"/>
-      <c r="AC34" s="171"/>
-      <c r="AD34" s="171"/>
-      <c r="AE34" s="171"/>
-      <c r="AF34" s="171"/>
-      <c r="AG34" s="171"/>
-      <c r="AH34" s="171"/>
-      <c r="AI34" s="171"/>
-      <c r="AJ34" s="171"/>
-      <c r="AK34" s="171"/>
-      <c r="AL34" s="171"/>
-      <c r="AM34" s="171"/>
-      <c r="AN34" s="171"/>
-      <c r="AO34" s="171"/>
-      <c r="AP34" s="171"/>
-      <c r="AQ34" s="172"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="148"/>
+      <c r="W34" s="148"/>
+      <c r="X34" s="148"/>
+      <c r="Y34" s="148"/>
+      <c r="Z34" s="148"/>
+      <c r="AA34" s="148"/>
+      <c r="AB34" s="148"/>
+      <c r="AC34" s="148"/>
+      <c r="AD34" s="148"/>
+      <c r="AE34" s="148"/>
+      <c r="AF34" s="148"/>
+      <c r="AG34" s="148"/>
+      <c r="AH34" s="148"/>
+      <c r="AI34" s="148"/>
+      <c r="AJ34" s="148"/>
+      <c r="AK34" s="148"/>
+      <c r="AL34" s="148"/>
+      <c r="AM34" s="148"/>
+      <c r="AN34" s="148"/>
+      <c r="AO34" s="148"/>
+      <c r="AP34" s="148"/>
+      <c r="AQ34" s="149"/>
       <c r="AR34" s="16"/>
       <c r="AS34" s="16"/>
       <c r="AT34" s="16"/>
@@ -4820,16 +4890,16 @@
       <c r="AI45" s="112"/>
       <c r="AJ45" s="112"/>
       <c r="AK45" s="113"/>
-      <c r="AL45" s="164"/>
-      <c r="AM45" s="165"/>
-      <c r="AN45" s="166" t="s">
+      <c r="AL45" s="141"/>
+      <c r="AM45" s="142"/>
+      <c r="AN45" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="AO45" s="167"/>
-      <c r="AP45" s="164"/>
-      <c r="AQ45" s="168"/>
-      <c r="AR45" s="168"/>
-      <c r="AS45" s="169"/>
+      <c r="AO45" s="144"/>
+      <c r="AP45" s="141"/>
+      <c r="AQ45" s="145"/>
+      <c r="AR45" s="145"/>
+      <c r="AS45" s="146"/>
       <c r="AT45" s="16"/>
       <c r="AU45" s="54"/>
       <c r="AV45" s="54"/>
@@ -7752,6 +7822,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="G2:AL3"/>
+    <mergeCell ref="AM2:AP3"/>
+    <mergeCell ref="AQ2:AT3"/>
+    <mergeCell ref="AU2:AX3"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="L15:Y15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="L16:Y16"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="R27:AQ27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="R28:AQ28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:Q25"/>
+    <mergeCell ref="R25:AQ25"/>
     <mergeCell ref="A9:XFD9"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="R32:AQ32"/>
@@ -7768,26 +7858,6 @@
     <mergeCell ref="R31:AQ31"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="R26:AQ26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="R28:AQ28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:Q25"/>
-    <mergeCell ref="R25:AQ25"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="L15:Y15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="L16:Y16"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="R27:AQ27"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="G2:AL3"/>
-    <mergeCell ref="AM2:AP3"/>
-    <mergeCell ref="AQ2:AT3"/>
-    <mergeCell ref="AU2:AX3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" location="'Activity Diagram'!A1" display="Biểu đồ hoạt động Test Online"/>
@@ -7835,304 +7905,304 @@
       <selection activeCell="AW11" sqref="AW11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="23"/>
-    <col min="2" max="3" width="3.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="23"/>
-    <col min="5" max="5" width="8.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="39" width="3.375" style="23"/>
-    <col min="40" max="40" width="7.75" style="23" customWidth="1"/>
-    <col min="41" max="257" width="3.375" style="23"/>
-    <col min="258" max="259" width="3.875" style="23" customWidth="1"/>
-    <col min="260" max="513" width="3.375" style="23"/>
-    <col min="514" max="515" width="3.875" style="23" customWidth="1"/>
-    <col min="516" max="769" width="3.375" style="23"/>
-    <col min="770" max="771" width="3.875" style="23" customWidth="1"/>
-    <col min="772" max="1025" width="3.375" style="23"/>
-    <col min="1026" max="1027" width="3.875" style="23" customWidth="1"/>
-    <col min="1028" max="1281" width="3.375" style="23"/>
-    <col min="1282" max="1283" width="3.875" style="23" customWidth="1"/>
-    <col min="1284" max="1537" width="3.375" style="23"/>
-    <col min="1538" max="1539" width="3.875" style="23" customWidth="1"/>
-    <col min="1540" max="1793" width="3.375" style="23"/>
-    <col min="1794" max="1795" width="3.875" style="23" customWidth="1"/>
-    <col min="1796" max="2049" width="3.375" style="23"/>
-    <col min="2050" max="2051" width="3.875" style="23" customWidth="1"/>
-    <col min="2052" max="2305" width="3.375" style="23"/>
-    <col min="2306" max="2307" width="3.875" style="23" customWidth="1"/>
-    <col min="2308" max="2561" width="3.375" style="23"/>
-    <col min="2562" max="2563" width="3.875" style="23" customWidth="1"/>
-    <col min="2564" max="2817" width="3.375" style="23"/>
-    <col min="2818" max="2819" width="3.875" style="23" customWidth="1"/>
-    <col min="2820" max="3073" width="3.375" style="23"/>
-    <col min="3074" max="3075" width="3.875" style="23" customWidth="1"/>
-    <col min="3076" max="3329" width="3.375" style="23"/>
-    <col min="3330" max="3331" width="3.875" style="23" customWidth="1"/>
-    <col min="3332" max="3585" width="3.375" style="23"/>
-    <col min="3586" max="3587" width="3.875" style="23" customWidth="1"/>
-    <col min="3588" max="3841" width="3.375" style="23"/>
-    <col min="3842" max="3843" width="3.875" style="23" customWidth="1"/>
-    <col min="3844" max="4097" width="3.375" style="23"/>
-    <col min="4098" max="4099" width="3.875" style="23" customWidth="1"/>
-    <col min="4100" max="4353" width="3.375" style="23"/>
-    <col min="4354" max="4355" width="3.875" style="23" customWidth="1"/>
-    <col min="4356" max="4609" width="3.375" style="23"/>
-    <col min="4610" max="4611" width="3.875" style="23" customWidth="1"/>
-    <col min="4612" max="4865" width="3.375" style="23"/>
-    <col min="4866" max="4867" width="3.875" style="23" customWidth="1"/>
-    <col min="4868" max="5121" width="3.375" style="23"/>
-    <col min="5122" max="5123" width="3.875" style="23" customWidth="1"/>
-    <col min="5124" max="5377" width="3.375" style="23"/>
-    <col min="5378" max="5379" width="3.875" style="23" customWidth="1"/>
-    <col min="5380" max="5633" width="3.375" style="23"/>
-    <col min="5634" max="5635" width="3.875" style="23" customWidth="1"/>
-    <col min="5636" max="5889" width="3.375" style="23"/>
-    <col min="5890" max="5891" width="3.875" style="23" customWidth="1"/>
-    <col min="5892" max="6145" width="3.375" style="23"/>
-    <col min="6146" max="6147" width="3.875" style="23" customWidth="1"/>
-    <col min="6148" max="6401" width="3.375" style="23"/>
-    <col min="6402" max="6403" width="3.875" style="23" customWidth="1"/>
-    <col min="6404" max="6657" width="3.375" style="23"/>
-    <col min="6658" max="6659" width="3.875" style="23" customWidth="1"/>
-    <col min="6660" max="6913" width="3.375" style="23"/>
-    <col min="6914" max="6915" width="3.875" style="23" customWidth="1"/>
-    <col min="6916" max="7169" width="3.375" style="23"/>
-    <col min="7170" max="7171" width="3.875" style="23" customWidth="1"/>
-    <col min="7172" max="7425" width="3.375" style="23"/>
-    <col min="7426" max="7427" width="3.875" style="23" customWidth="1"/>
-    <col min="7428" max="7681" width="3.375" style="23"/>
-    <col min="7682" max="7683" width="3.875" style="23" customWidth="1"/>
-    <col min="7684" max="7937" width="3.375" style="23"/>
-    <col min="7938" max="7939" width="3.875" style="23" customWidth="1"/>
-    <col min="7940" max="8193" width="3.375" style="23"/>
-    <col min="8194" max="8195" width="3.875" style="23" customWidth="1"/>
-    <col min="8196" max="8449" width="3.375" style="23"/>
-    <col min="8450" max="8451" width="3.875" style="23" customWidth="1"/>
-    <col min="8452" max="8705" width="3.375" style="23"/>
-    <col min="8706" max="8707" width="3.875" style="23" customWidth="1"/>
-    <col min="8708" max="8961" width="3.375" style="23"/>
-    <col min="8962" max="8963" width="3.875" style="23" customWidth="1"/>
-    <col min="8964" max="9217" width="3.375" style="23"/>
-    <col min="9218" max="9219" width="3.875" style="23" customWidth="1"/>
-    <col min="9220" max="9473" width="3.375" style="23"/>
-    <col min="9474" max="9475" width="3.875" style="23" customWidth="1"/>
-    <col min="9476" max="9729" width="3.375" style="23"/>
-    <col min="9730" max="9731" width="3.875" style="23" customWidth="1"/>
-    <col min="9732" max="9985" width="3.375" style="23"/>
-    <col min="9986" max="9987" width="3.875" style="23" customWidth="1"/>
-    <col min="9988" max="10241" width="3.375" style="23"/>
-    <col min="10242" max="10243" width="3.875" style="23" customWidth="1"/>
-    <col min="10244" max="10497" width="3.375" style="23"/>
-    <col min="10498" max="10499" width="3.875" style="23" customWidth="1"/>
-    <col min="10500" max="10753" width="3.375" style="23"/>
-    <col min="10754" max="10755" width="3.875" style="23" customWidth="1"/>
-    <col min="10756" max="11009" width="3.375" style="23"/>
-    <col min="11010" max="11011" width="3.875" style="23" customWidth="1"/>
-    <col min="11012" max="11265" width="3.375" style="23"/>
-    <col min="11266" max="11267" width="3.875" style="23" customWidth="1"/>
-    <col min="11268" max="11521" width="3.375" style="23"/>
-    <col min="11522" max="11523" width="3.875" style="23" customWidth="1"/>
-    <col min="11524" max="11777" width="3.375" style="23"/>
-    <col min="11778" max="11779" width="3.875" style="23" customWidth="1"/>
-    <col min="11780" max="12033" width="3.375" style="23"/>
-    <col min="12034" max="12035" width="3.875" style="23" customWidth="1"/>
-    <col min="12036" max="12289" width="3.375" style="23"/>
-    <col min="12290" max="12291" width="3.875" style="23" customWidth="1"/>
-    <col min="12292" max="12545" width="3.375" style="23"/>
-    <col min="12546" max="12547" width="3.875" style="23" customWidth="1"/>
-    <col min="12548" max="12801" width="3.375" style="23"/>
-    <col min="12802" max="12803" width="3.875" style="23" customWidth="1"/>
-    <col min="12804" max="13057" width="3.375" style="23"/>
-    <col min="13058" max="13059" width="3.875" style="23" customWidth="1"/>
-    <col min="13060" max="13313" width="3.375" style="23"/>
-    <col min="13314" max="13315" width="3.875" style="23" customWidth="1"/>
-    <col min="13316" max="13569" width="3.375" style="23"/>
-    <col min="13570" max="13571" width="3.875" style="23" customWidth="1"/>
-    <col min="13572" max="13825" width="3.375" style="23"/>
-    <col min="13826" max="13827" width="3.875" style="23" customWidth="1"/>
-    <col min="13828" max="14081" width="3.375" style="23"/>
-    <col min="14082" max="14083" width="3.875" style="23" customWidth="1"/>
-    <col min="14084" max="14337" width="3.375" style="23"/>
-    <col min="14338" max="14339" width="3.875" style="23" customWidth="1"/>
-    <col min="14340" max="14593" width="3.375" style="23"/>
-    <col min="14594" max="14595" width="3.875" style="23" customWidth="1"/>
-    <col min="14596" max="14849" width="3.375" style="23"/>
-    <col min="14850" max="14851" width="3.875" style="23" customWidth="1"/>
-    <col min="14852" max="15105" width="3.375" style="23"/>
-    <col min="15106" max="15107" width="3.875" style="23" customWidth="1"/>
-    <col min="15108" max="15361" width="3.375" style="23"/>
-    <col min="15362" max="15363" width="3.875" style="23" customWidth="1"/>
-    <col min="15364" max="15617" width="3.375" style="23"/>
-    <col min="15618" max="15619" width="3.875" style="23" customWidth="1"/>
-    <col min="15620" max="15873" width="3.375" style="23"/>
-    <col min="15874" max="15875" width="3.875" style="23" customWidth="1"/>
-    <col min="15876" max="16129" width="3.375" style="23"/>
-    <col min="16130" max="16131" width="3.875" style="23" customWidth="1"/>
-    <col min="16132" max="16384" width="3.375" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="23"/>
+    <col min="2" max="3" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="23"/>
+    <col min="5" max="5" width="8.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="39" width="3.42578125" style="23"/>
+    <col min="40" max="40" width="7.7109375" style="23" customWidth="1"/>
+    <col min="41" max="257" width="3.42578125" style="23"/>
+    <col min="258" max="259" width="3.85546875" style="23" customWidth="1"/>
+    <col min="260" max="513" width="3.42578125" style="23"/>
+    <col min="514" max="515" width="3.85546875" style="23" customWidth="1"/>
+    <col min="516" max="769" width="3.42578125" style="23"/>
+    <col min="770" max="771" width="3.85546875" style="23" customWidth="1"/>
+    <col min="772" max="1025" width="3.42578125" style="23"/>
+    <col min="1026" max="1027" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1028" max="1281" width="3.42578125" style="23"/>
+    <col min="1282" max="1283" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1284" max="1537" width="3.42578125" style="23"/>
+    <col min="1538" max="1539" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1540" max="1793" width="3.42578125" style="23"/>
+    <col min="1794" max="1795" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1796" max="2049" width="3.42578125" style="23"/>
+    <col min="2050" max="2051" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2052" max="2305" width="3.42578125" style="23"/>
+    <col min="2306" max="2307" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2308" max="2561" width="3.42578125" style="23"/>
+    <col min="2562" max="2563" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2564" max="2817" width="3.42578125" style="23"/>
+    <col min="2818" max="2819" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2820" max="3073" width="3.42578125" style="23"/>
+    <col min="3074" max="3075" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3076" max="3329" width="3.42578125" style="23"/>
+    <col min="3330" max="3331" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3332" max="3585" width="3.42578125" style="23"/>
+    <col min="3586" max="3587" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3588" max="3841" width="3.42578125" style="23"/>
+    <col min="3842" max="3843" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3844" max="4097" width="3.42578125" style="23"/>
+    <col min="4098" max="4099" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4100" max="4353" width="3.42578125" style="23"/>
+    <col min="4354" max="4355" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4356" max="4609" width="3.42578125" style="23"/>
+    <col min="4610" max="4611" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4612" max="4865" width="3.42578125" style="23"/>
+    <col min="4866" max="4867" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4868" max="5121" width="3.42578125" style="23"/>
+    <col min="5122" max="5123" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5124" max="5377" width="3.42578125" style="23"/>
+    <col min="5378" max="5379" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5380" max="5633" width="3.42578125" style="23"/>
+    <col min="5634" max="5635" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5636" max="5889" width="3.42578125" style="23"/>
+    <col min="5890" max="5891" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5892" max="6145" width="3.42578125" style="23"/>
+    <col min="6146" max="6147" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6148" max="6401" width="3.42578125" style="23"/>
+    <col min="6402" max="6403" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6404" max="6657" width="3.42578125" style="23"/>
+    <col min="6658" max="6659" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6660" max="6913" width="3.42578125" style="23"/>
+    <col min="6914" max="6915" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6916" max="7169" width="3.42578125" style="23"/>
+    <col min="7170" max="7171" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7172" max="7425" width="3.42578125" style="23"/>
+    <col min="7426" max="7427" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7428" max="7681" width="3.42578125" style="23"/>
+    <col min="7682" max="7683" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7684" max="7937" width="3.42578125" style="23"/>
+    <col min="7938" max="7939" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7940" max="8193" width="3.42578125" style="23"/>
+    <col min="8194" max="8195" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8196" max="8449" width="3.42578125" style="23"/>
+    <col min="8450" max="8451" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8452" max="8705" width="3.42578125" style="23"/>
+    <col min="8706" max="8707" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8708" max="8961" width="3.42578125" style="23"/>
+    <col min="8962" max="8963" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8964" max="9217" width="3.42578125" style="23"/>
+    <col min="9218" max="9219" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9220" max="9473" width="3.42578125" style="23"/>
+    <col min="9474" max="9475" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9476" max="9729" width="3.42578125" style="23"/>
+    <col min="9730" max="9731" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9732" max="9985" width="3.42578125" style="23"/>
+    <col min="9986" max="9987" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9988" max="10241" width="3.42578125" style="23"/>
+    <col min="10242" max="10243" width="3.85546875" style="23" customWidth="1"/>
+    <col min="10244" max="10497" width="3.42578125" style="23"/>
+    <col min="10498" max="10499" width="3.85546875" style="23" customWidth="1"/>
+    <col min="10500" max="10753" width="3.42578125" style="23"/>
+    <col min="10754" max="10755" width="3.85546875" style="23" customWidth="1"/>
+    <col min="10756" max="11009" width="3.42578125" style="23"/>
+    <col min="11010" max="11011" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11012" max="11265" width="3.42578125" style="23"/>
+    <col min="11266" max="11267" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11268" max="11521" width="3.42578125" style="23"/>
+    <col min="11522" max="11523" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11524" max="11777" width="3.42578125" style="23"/>
+    <col min="11778" max="11779" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11780" max="12033" width="3.42578125" style="23"/>
+    <col min="12034" max="12035" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12036" max="12289" width="3.42578125" style="23"/>
+    <col min="12290" max="12291" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12292" max="12545" width="3.42578125" style="23"/>
+    <col min="12546" max="12547" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12548" max="12801" width="3.42578125" style="23"/>
+    <col min="12802" max="12803" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12804" max="13057" width="3.42578125" style="23"/>
+    <col min="13058" max="13059" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13060" max="13313" width="3.42578125" style="23"/>
+    <col min="13314" max="13315" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13316" max="13569" width="3.42578125" style="23"/>
+    <col min="13570" max="13571" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13572" max="13825" width="3.42578125" style="23"/>
+    <col min="13826" max="13827" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13828" max="14081" width="3.42578125" style="23"/>
+    <col min="14082" max="14083" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14084" max="14337" width="3.42578125" style="23"/>
+    <col min="14338" max="14339" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14340" max="14593" width="3.42578125" style="23"/>
+    <col min="14594" max="14595" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14596" max="14849" width="3.42578125" style="23"/>
+    <col min="14850" max="14851" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14852" max="15105" width="3.42578125" style="23"/>
+    <col min="15106" max="15107" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15108" max="15361" width="3.42578125" style="23"/>
+    <col min="15362" max="15363" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15364" max="15617" width="3.42578125" style="23"/>
+    <col min="15618" max="15619" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15620" max="15873" width="3.42578125" style="23"/>
+    <col min="15874" max="15875" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15876" max="16129" width="3.42578125" style="23"/>
+    <col min="16130" max="16131" width="3.85546875" style="23" customWidth="1"/>
+    <col min="16132" max="16384" width="3.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="18" customFormat="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="182" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185" t="s">
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="182" t="s">
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="184"/>
-      <c r="AK1" s="183" t="s">
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="186"/>
+      <c r="AK1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="182" t="s">
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="186"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="182"/>
     </row>
     <row r="2" spans="1:44" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="133" t="s">
+      <c r="A2" s="189"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="187" t="s">
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187" t="s">
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="133" t="s">
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="176">
         <v>42273</v>
       </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="188"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="176"/>
+      <c r="AR2" s="184"/>
     </row>
     <row r="3" spans="1:44" s="18" customFormat="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="187"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="189"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="179"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="185"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="19"/>
@@ -10640,6 +10710,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -10648,11 +10723,6 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -10664,308 +10734,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="23"/>
-    <col min="2" max="3" width="3.875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="23"/>
-    <col min="5" max="5" width="18.125" style="23" customWidth="1"/>
-    <col min="6" max="39" width="3.375" style="23"/>
-    <col min="40" max="40" width="8.375" style="23" customWidth="1"/>
-    <col min="41" max="257" width="3.375" style="23"/>
-    <col min="258" max="259" width="3.875" style="23" customWidth="1"/>
-    <col min="260" max="513" width="3.375" style="23"/>
-    <col min="514" max="515" width="3.875" style="23" customWidth="1"/>
-    <col min="516" max="769" width="3.375" style="23"/>
-    <col min="770" max="771" width="3.875" style="23" customWidth="1"/>
-    <col min="772" max="1025" width="3.375" style="23"/>
-    <col min="1026" max="1027" width="3.875" style="23" customWidth="1"/>
-    <col min="1028" max="1281" width="3.375" style="23"/>
-    <col min="1282" max="1283" width="3.875" style="23" customWidth="1"/>
-    <col min="1284" max="1537" width="3.375" style="23"/>
-    <col min="1538" max="1539" width="3.875" style="23" customWidth="1"/>
-    <col min="1540" max="1793" width="3.375" style="23"/>
-    <col min="1794" max="1795" width="3.875" style="23" customWidth="1"/>
-    <col min="1796" max="2049" width="3.375" style="23"/>
-    <col min="2050" max="2051" width="3.875" style="23" customWidth="1"/>
-    <col min="2052" max="2305" width="3.375" style="23"/>
-    <col min="2306" max="2307" width="3.875" style="23" customWidth="1"/>
-    <col min="2308" max="2561" width="3.375" style="23"/>
-    <col min="2562" max="2563" width="3.875" style="23" customWidth="1"/>
-    <col min="2564" max="2817" width="3.375" style="23"/>
-    <col min="2818" max="2819" width="3.875" style="23" customWidth="1"/>
-    <col min="2820" max="3073" width="3.375" style="23"/>
-    <col min="3074" max="3075" width="3.875" style="23" customWidth="1"/>
-    <col min="3076" max="3329" width="3.375" style="23"/>
-    <col min="3330" max="3331" width="3.875" style="23" customWidth="1"/>
-    <col min="3332" max="3585" width="3.375" style="23"/>
-    <col min="3586" max="3587" width="3.875" style="23" customWidth="1"/>
-    <col min="3588" max="3841" width="3.375" style="23"/>
-    <col min="3842" max="3843" width="3.875" style="23" customWidth="1"/>
-    <col min="3844" max="4097" width="3.375" style="23"/>
-    <col min="4098" max="4099" width="3.875" style="23" customWidth="1"/>
-    <col min="4100" max="4353" width="3.375" style="23"/>
-    <col min="4354" max="4355" width="3.875" style="23" customWidth="1"/>
-    <col min="4356" max="4609" width="3.375" style="23"/>
-    <col min="4610" max="4611" width="3.875" style="23" customWidth="1"/>
-    <col min="4612" max="4865" width="3.375" style="23"/>
-    <col min="4866" max="4867" width="3.875" style="23" customWidth="1"/>
-    <col min="4868" max="5121" width="3.375" style="23"/>
-    <col min="5122" max="5123" width="3.875" style="23" customWidth="1"/>
-    <col min="5124" max="5377" width="3.375" style="23"/>
-    <col min="5378" max="5379" width="3.875" style="23" customWidth="1"/>
-    <col min="5380" max="5633" width="3.375" style="23"/>
-    <col min="5634" max="5635" width="3.875" style="23" customWidth="1"/>
-    <col min="5636" max="5889" width="3.375" style="23"/>
-    <col min="5890" max="5891" width="3.875" style="23" customWidth="1"/>
-    <col min="5892" max="6145" width="3.375" style="23"/>
-    <col min="6146" max="6147" width="3.875" style="23" customWidth="1"/>
-    <col min="6148" max="6401" width="3.375" style="23"/>
-    <col min="6402" max="6403" width="3.875" style="23" customWidth="1"/>
-    <col min="6404" max="6657" width="3.375" style="23"/>
-    <col min="6658" max="6659" width="3.875" style="23" customWidth="1"/>
-    <col min="6660" max="6913" width="3.375" style="23"/>
-    <col min="6914" max="6915" width="3.875" style="23" customWidth="1"/>
-    <col min="6916" max="7169" width="3.375" style="23"/>
-    <col min="7170" max="7171" width="3.875" style="23" customWidth="1"/>
-    <col min="7172" max="7425" width="3.375" style="23"/>
-    <col min="7426" max="7427" width="3.875" style="23" customWidth="1"/>
-    <col min="7428" max="7681" width="3.375" style="23"/>
-    <col min="7682" max="7683" width="3.875" style="23" customWidth="1"/>
-    <col min="7684" max="7937" width="3.375" style="23"/>
-    <col min="7938" max="7939" width="3.875" style="23" customWidth="1"/>
-    <col min="7940" max="8193" width="3.375" style="23"/>
-    <col min="8194" max="8195" width="3.875" style="23" customWidth="1"/>
-    <col min="8196" max="8449" width="3.375" style="23"/>
-    <col min="8450" max="8451" width="3.875" style="23" customWidth="1"/>
-    <col min="8452" max="8705" width="3.375" style="23"/>
-    <col min="8706" max="8707" width="3.875" style="23" customWidth="1"/>
-    <col min="8708" max="8961" width="3.375" style="23"/>
-    <col min="8962" max="8963" width="3.875" style="23" customWidth="1"/>
-    <col min="8964" max="9217" width="3.375" style="23"/>
-    <col min="9218" max="9219" width="3.875" style="23" customWidth="1"/>
-    <col min="9220" max="9473" width="3.375" style="23"/>
-    <col min="9474" max="9475" width="3.875" style="23" customWidth="1"/>
-    <col min="9476" max="9729" width="3.375" style="23"/>
-    <col min="9730" max="9731" width="3.875" style="23" customWidth="1"/>
-    <col min="9732" max="9985" width="3.375" style="23"/>
-    <col min="9986" max="9987" width="3.875" style="23" customWidth="1"/>
-    <col min="9988" max="10241" width="3.375" style="23"/>
-    <col min="10242" max="10243" width="3.875" style="23" customWidth="1"/>
-    <col min="10244" max="10497" width="3.375" style="23"/>
-    <col min="10498" max="10499" width="3.875" style="23" customWidth="1"/>
-    <col min="10500" max="10753" width="3.375" style="23"/>
-    <col min="10754" max="10755" width="3.875" style="23" customWidth="1"/>
-    <col min="10756" max="11009" width="3.375" style="23"/>
-    <col min="11010" max="11011" width="3.875" style="23" customWidth="1"/>
-    <col min="11012" max="11265" width="3.375" style="23"/>
-    <col min="11266" max="11267" width="3.875" style="23" customWidth="1"/>
-    <col min="11268" max="11521" width="3.375" style="23"/>
-    <col min="11522" max="11523" width="3.875" style="23" customWidth="1"/>
-    <col min="11524" max="11777" width="3.375" style="23"/>
-    <col min="11778" max="11779" width="3.875" style="23" customWidth="1"/>
-    <col min="11780" max="12033" width="3.375" style="23"/>
-    <col min="12034" max="12035" width="3.875" style="23" customWidth="1"/>
-    <col min="12036" max="12289" width="3.375" style="23"/>
-    <col min="12290" max="12291" width="3.875" style="23" customWidth="1"/>
-    <col min="12292" max="12545" width="3.375" style="23"/>
-    <col min="12546" max="12547" width="3.875" style="23" customWidth="1"/>
-    <col min="12548" max="12801" width="3.375" style="23"/>
-    <col min="12802" max="12803" width="3.875" style="23" customWidth="1"/>
-    <col min="12804" max="13057" width="3.375" style="23"/>
-    <col min="13058" max="13059" width="3.875" style="23" customWidth="1"/>
-    <col min="13060" max="13313" width="3.375" style="23"/>
-    <col min="13314" max="13315" width="3.875" style="23" customWidth="1"/>
-    <col min="13316" max="13569" width="3.375" style="23"/>
-    <col min="13570" max="13571" width="3.875" style="23" customWidth="1"/>
-    <col min="13572" max="13825" width="3.375" style="23"/>
-    <col min="13826" max="13827" width="3.875" style="23" customWidth="1"/>
-    <col min="13828" max="14081" width="3.375" style="23"/>
-    <col min="14082" max="14083" width="3.875" style="23" customWidth="1"/>
-    <col min="14084" max="14337" width="3.375" style="23"/>
-    <col min="14338" max="14339" width="3.875" style="23" customWidth="1"/>
-    <col min="14340" max="14593" width="3.375" style="23"/>
-    <col min="14594" max="14595" width="3.875" style="23" customWidth="1"/>
-    <col min="14596" max="14849" width="3.375" style="23"/>
-    <col min="14850" max="14851" width="3.875" style="23" customWidth="1"/>
-    <col min="14852" max="15105" width="3.375" style="23"/>
-    <col min="15106" max="15107" width="3.875" style="23" customWidth="1"/>
-    <col min="15108" max="15361" width="3.375" style="23"/>
-    <col min="15362" max="15363" width="3.875" style="23" customWidth="1"/>
-    <col min="15364" max="15617" width="3.375" style="23"/>
-    <col min="15618" max="15619" width="3.875" style="23" customWidth="1"/>
-    <col min="15620" max="15873" width="3.375" style="23"/>
-    <col min="15874" max="15875" width="3.875" style="23" customWidth="1"/>
-    <col min="15876" max="16129" width="3.375" style="23"/>
-    <col min="16130" max="16131" width="3.875" style="23" customWidth="1"/>
-    <col min="16132" max="16384" width="3.375" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="23"/>
+    <col min="2" max="3" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="23"/>
+    <col min="5" max="5" width="18.140625" style="23" customWidth="1"/>
+    <col min="6" max="39" width="3.42578125" style="23"/>
+    <col min="40" max="40" width="8.42578125" style="23" customWidth="1"/>
+    <col min="41" max="257" width="3.42578125" style="23"/>
+    <col min="258" max="259" width="3.85546875" style="23" customWidth="1"/>
+    <col min="260" max="513" width="3.42578125" style="23"/>
+    <col min="514" max="515" width="3.85546875" style="23" customWidth="1"/>
+    <col min="516" max="769" width="3.42578125" style="23"/>
+    <col min="770" max="771" width="3.85546875" style="23" customWidth="1"/>
+    <col min="772" max="1025" width="3.42578125" style="23"/>
+    <col min="1026" max="1027" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1028" max="1281" width="3.42578125" style="23"/>
+    <col min="1282" max="1283" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1284" max="1537" width="3.42578125" style="23"/>
+    <col min="1538" max="1539" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1540" max="1793" width="3.42578125" style="23"/>
+    <col min="1794" max="1795" width="3.85546875" style="23" customWidth="1"/>
+    <col min="1796" max="2049" width="3.42578125" style="23"/>
+    <col min="2050" max="2051" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2052" max="2305" width="3.42578125" style="23"/>
+    <col min="2306" max="2307" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2308" max="2561" width="3.42578125" style="23"/>
+    <col min="2562" max="2563" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2564" max="2817" width="3.42578125" style="23"/>
+    <col min="2818" max="2819" width="3.85546875" style="23" customWidth="1"/>
+    <col min="2820" max="3073" width="3.42578125" style="23"/>
+    <col min="3074" max="3075" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3076" max="3329" width="3.42578125" style="23"/>
+    <col min="3330" max="3331" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3332" max="3585" width="3.42578125" style="23"/>
+    <col min="3586" max="3587" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3588" max="3841" width="3.42578125" style="23"/>
+    <col min="3842" max="3843" width="3.85546875" style="23" customWidth="1"/>
+    <col min="3844" max="4097" width="3.42578125" style="23"/>
+    <col min="4098" max="4099" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4100" max="4353" width="3.42578125" style="23"/>
+    <col min="4354" max="4355" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4356" max="4609" width="3.42578125" style="23"/>
+    <col min="4610" max="4611" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4612" max="4865" width="3.42578125" style="23"/>
+    <col min="4866" max="4867" width="3.85546875" style="23" customWidth="1"/>
+    <col min="4868" max="5121" width="3.42578125" style="23"/>
+    <col min="5122" max="5123" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5124" max="5377" width="3.42578125" style="23"/>
+    <col min="5378" max="5379" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5380" max="5633" width="3.42578125" style="23"/>
+    <col min="5634" max="5635" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5636" max="5889" width="3.42578125" style="23"/>
+    <col min="5890" max="5891" width="3.85546875" style="23" customWidth="1"/>
+    <col min="5892" max="6145" width="3.42578125" style="23"/>
+    <col min="6146" max="6147" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6148" max="6401" width="3.42578125" style="23"/>
+    <col min="6402" max="6403" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6404" max="6657" width="3.42578125" style="23"/>
+    <col min="6658" max="6659" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6660" max="6913" width="3.42578125" style="23"/>
+    <col min="6914" max="6915" width="3.85546875" style="23" customWidth="1"/>
+    <col min="6916" max="7169" width="3.42578125" style="23"/>
+    <col min="7170" max="7171" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7172" max="7425" width="3.42578125" style="23"/>
+    <col min="7426" max="7427" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7428" max="7681" width="3.42578125" style="23"/>
+    <col min="7682" max="7683" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7684" max="7937" width="3.42578125" style="23"/>
+    <col min="7938" max="7939" width="3.85546875" style="23" customWidth="1"/>
+    <col min="7940" max="8193" width="3.42578125" style="23"/>
+    <col min="8194" max="8195" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8196" max="8449" width="3.42578125" style="23"/>
+    <col min="8450" max="8451" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8452" max="8705" width="3.42578125" style="23"/>
+    <col min="8706" max="8707" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8708" max="8961" width="3.42578125" style="23"/>
+    <col min="8962" max="8963" width="3.85546875" style="23" customWidth="1"/>
+    <col min="8964" max="9217" width="3.42578125" style="23"/>
+    <col min="9218" max="9219" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9220" max="9473" width="3.42578125" style="23"/>
+    <col min="9474" max="9475" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9476" max="9729" width="3.42578125" style="23"/>
+    <col min="9730" max="9731" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9732" max="9985" width="3.42578125" style="23"/>
+    <col min="9986" max="9987" width="3.85546875" style="23" customWidth="1"/>
+    <col min="9988" max="10241" width="3.42578125" style="23"/>
+    <col min="10242" max="10243" width="3.85546875" style="23" customWidth="1"/>
+    <col min="10244" max="10497" width="3.42578125" style="23"/>
+    <col min="10498" max="10499" width="3.85546875" style="23" customWidth="1"/>
+    <col min="10500" max="10753" width="3.42578125" style="23"/>
+    <col min="10754" max="10755" width="3.85546875" style="23" customWidth="1"/>
+    <col min="10756" max="11009" width="3.42578125" style="23"/>
+    <col min="11010" max="11011" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11012" max="11265" width="3.42578125" style="23"/>
+    <col min="11266" max="11267" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11268" max="11521" width="3.42578125" style="23"/>
+    <col min="11522" max="11523" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11524" max="11777" width="3.42578125" style="23"/>
+    <col min="11778" max="11779" width="3.85546875" style="23" customWidth="1"/>
+    <col min="11780" max="12033" width="3.42578125" style="23"/>
+    <col min="12034" max="12035" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12036" max="12289" width="3.42578125" style="23"/>
+    <col min="12290" max="12291" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12292" max="12545" width="3.42578125" style="23"/>
+    <col min="12546" max="12547" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12548" max="12801" width="3.42578125" style="23"/>
+    <col min="12802" max="12803" width="3.85546875" style="23" customWidth="1"/>
+    <col min="12804" max="13057" width="3.42578125" style="23"/>
+    <col min="13058" max="13059" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13060" max="13313" width="3.42578125" style="23"/>
+    <col min="13314" max="13315" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13316" max="13569" width="3.42578125" style="23"/>
+    <col min="13570" max="13571" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13572" max="13825" width="3.42578125" style="23"/>
+    <col min="13826" max="13827" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13828" max="14081" width="3.42578125" style="23"/>
+    <col min="14082" max="14083" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14084" max="14337" width="3.42578125" style="23"/>
+    <col min="14338" max="14339" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14340" max="14593" width="3.42578125" style="23"/>
+    <col min="14594" max="14595" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14596" max="14849" width="3.42578125" style="23"/>
+    <col min="14850" max="14851" width="3.85546875" style="23" customWidth="1"/>
+    <col min="14852" max="15105" width="3.42578125" style="23"/>
+    <col min="15106" max="15107" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15108" max="15361" width="3.42578125" style="23"/>
+    <col min="15362" max="15363" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15364" max="15617" width="3.42578125" style="23"/>
+    <col min="15618" max="15619" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15620" max="15873" width="3.42578125" style="23"/>
+    <col min="15874" max="15875" width="3.85546875" style="23" customWidth="1"/>
+    <col min="15876" max="16129" width="3.42578125" style="23"/>
+    <col min="16130" max="16131" width="3.85546875" style="23" customWidth="1"/>
+    <col min="16132" max="16384" width="3.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="18" customFormat="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="182" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185" t="s">
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="182" t="s">
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="184"/>
-      <c r="AK1" s="183" t="s">
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="186"/>
+      <c r="AK1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="182" t="s">
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="186"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="182"/>
     </row>
     <row r="2" spans="1:44" s="18" customFormat="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="133" t="s">
+      <c r="A2" s="189"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="187" t="s">
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187" t="s">
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="133" t="s">
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="176">
         <v>42273</v>
       </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="188"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="176"/>
+      <c r="AR2" s="184"/>
     </row>
     <row r="3" spans="1:44" s="18" customFormat="1">
-      <c r="A3" s="181"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="187"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="189"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="179"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="185"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="19"/>
@@ -13571,6 +13641,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -13579,11 +13654,6 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13592,178 +13662,175 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR56"/>
+  <dimension ref="A1:AR58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="44" width="3.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44" ht="16.5">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="182" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185" t="s">
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="182" t="s">
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="184"/>
-      <c r="AK1" s="183" t="s">
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="186"/>
+      <c r="AK1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="182" t="s">
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="186"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="182"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="181"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="133" t="s">
+      <c r="A2" s="189"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="187" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="133" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
-        <v>42273</v>
-      </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="188"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="183" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="170" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="176">
+        <v>42274</v>
+      </c>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="176"/>
+      <c r="AR2" s="184"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="181"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="187"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="189"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="179"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="185"/>
     </row>
     <row r="4" spans="1:44" ht="16.5">
       <c r="A4" s="19"/>
@@ -13908,12 +13975,10 @@
     <row r="7" spans="1:44" ht="16.5">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
-        <v>111</v>
-      </c>
+      <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
@@ -13958,7 +14023,7 @@
     <row r="8" spans="1:44" ht="16.5">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="30"/>
@@ -14146,12 +14211,12 @@
     <row r="12" spans="1:44" ht="17.25">
       <c r="A12" s="19"/>
       <c r="B12" s="37"/>
-      <c r="C12" s="38" t="s">
-        <v>113</v>
+      <c r="C12" s="38">
+        <v>2.1</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -14336,6 +14401,2808 @@
     <row r="16" spans="1:44" ht="17.25">
       <c r="A16" s="19"/>
       <c r="B16" s="37"/>
+      <c r="C16" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="28"/>
+    </row>
+    <row r="17" spans="1:44" ht="17.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39">
+        <v>3.2</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="28"/>
+    </row>
+    <row r="18" spans="1:44" ht="17.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="39">
+        <v>3.3</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="28"/>
+    </row>
+    <row r="19" spans="1:44" ht="17.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="28"/>
+    </row>
+    <row r="20" spans="1:44" ht="17.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="28"/>
+    </row>
+    <row r="21" spans="1:44" ht="17.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="39">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="28"/>
+    </row>
+    <row r="22" spans="1:44" ht="17.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="28"/>
+    </row>
+    <row r="23" spans="1:44" ht="16.5">
+      <c r="A23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="26"/>
+    </row>
+    <row r="24" spans="1:44" ht="17.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="28"/>
+    </row>
+    <row r="25" spans="1:44" ht="16.5">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="28"/>
+    </row>
+    <row r="26" spans="1:44" ht="17.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="28"/>
+    </row>
+    <row r="27" spans="1:44" ht="17.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="28"/>
+    </row>
+    <row r="28" spans="1:44" ht="17.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="28"/>
+    </row>
+    <row r="29" spans="1:44" ht="16.5">
+      <c r="A29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="26"/>
+    </row>
+    <row r="30" spans="1:44" ht="17.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="28"/>
+    </row>
+    <row r="31" spans="1:44" ht="16.5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="28"/>
+    </row>
+    <row r="32" spans="1:44" ht="16.5">
+      <c r="A32" s="19"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="28"/>
+    </row>
+    <row r="33" spans="1:44" ht="16.5">
+      <c r="A33" s="19"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="28"/>
+    </row>
+    <row r="34" spans="1:44" ht="16.5">
+      <c r="A34" s="19"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="28"/>
+    </row>
+    <row r="35" spans="1:44" ht="16.5">
+      <c r="A35" s="19"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="28"/>
+    </row>
+    <row r="36" spans="1:44" ht="16.5">
+      <c r="A36" s="19"/>
+      <c r="B36" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
+      <c r="AR36" s="28"/>
+    </row>
+    <row r="37" spans="1:44" ht="16.5">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="28"/>
+    </row>
+    <row r="38" spans="1:44" ht="16.5">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="28"/>
+    </row>
+    <row r="39" spans="1:44" ht="16.5">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="28"/>
+    </row>
+    <row r="40" spans="1:44" ht="16.5">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="28"/>
+    </row>
+    <row r="41" spans="1:44" ht="16.5">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="20"/>
+      <c r="AR41" s="28"/>
+    </row>
+    <row r="42" spans="1:44" ht="16.5">
+      <c r="A42" s="19"/>
+      <c r="B42" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="20"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AQ42" s="20"/>
+      <c r="AR42" s="28"/>
+    </row>
+    <row r="43" spans="1:44" ht="16.5">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="28"/>
+    </row>
+    <row r="44" spans="1:44" ht="16.5">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="20"/>
+      <c r="AR44" s="28"/>
+    </row>
+    <row r="45" spans="1:44" ht="16.5">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="28"/>
+    </row>
+    <row r="46" spans="1:44" ht="16.5">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="28"/>
+    </row>
+    <row r="47" spans="1:44" ht="16.5">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20"/>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="28"/>
+    </row>
+    <row r="48" spans="1:44" ht="16.5">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="28"/>
+    </row>
+    <row r="49" spans="1:44" ht="16.5">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="28"/>
+    </row>
+    <row r="50" spans="1:44" ht="16.5">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
+      <c r="AR50" s="28"/>
+    </row>
+    <row r="51" spans="1:44" ht="16.5">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="28"/>
+    </row>
+    <row r="52" spans="1:44" ht="16.5">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="20"/>
+      <c r="AQ52" s="20"/>
+      <c r="AR52" s="28"/>
+    </row>
+    <row r="53" spans="1:44" ht="16.5">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="20"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
+      <c r="AP53" s="20"/>
+      <c r="AQ53" s="20"/>
+      <c r="AR53" s="28"/>
+    </row>
+    <row r="54" spans="1:44" ht="16.5">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="20"/>
+      <c r="AM54" s="20"/>
+      <c r="AN54" s="20"/>
+      <c r="AO54" s="20"/>
+      <c r="AP54" s="20"/>
+      <c r="AQ54" s="20"/>
+      <c r="AR54" s="28"/>
+    </row>
+    <row r="55" spans="1:44" ht="16.5">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="28"/>
+    </row>
+    <row r="56" spans="1:44" ht="16.5">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="20"/>
+      <c r="AO56" s="20"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="20"/>
+      <c r="AR56" s="28"/>
+    </row>
+    <row r="57" spans="1:44" ht="16.5">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+      <c r="AN57" s="20"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="20"/>
+      <c r="AQ57" s="20"/>
+      <c r="AR57" s="28"/>
+    </row>
+    <row r="58" spans="1:44" ht="17.25" thickBot="1">
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="47"/>
+      <c r="AL58" s="47"/>
+      <c r="AM58" s="47"/>
+      <c r="AN58" s="47"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="47"/>
+      <c r="AQ58" s="47"/>
+      <c r="AR58" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="L2:S3"/>
+    <mergeCell ref="T2:AF3"/>
+    <mergeCell ref="AG2:AJ3"/>
+    <mergeCell ref="AK2:AN3"/>
+    <mergeCell ref="AO2:AR3"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AK1:AN1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="44" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" ht="16.5">
+      <c r="A1" s="187" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="180" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="190" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="186"/>
+      <c r="AK1" s="181" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="180" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="182"/>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="189"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="170" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="176">
+        <v>42273</v>
+      </c>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="176"/>
+      <c r="AR2" s="184"/>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="179"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="185"/>
+    </row>
+    <row r="4" spans="1:44" ht="16.5">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="22"/>
+    </row>
+    <row r="5" spans="1:44" ht="16.5">
+      <c r="A5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="26"/>
+    </row>
+    <row r="6" spans="1:44" ht="16.5">
+      <c r="A6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="28"/>
+    </row>
+    <row r="7" spans="1:44" ht="16.5">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="31"/>
+    </row>
+    <row r="8" spans="1:44" ht="16.5">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="31"/>
+    </row>
+    <row r="9" spans="1:44" ht="16.5">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="31"/>
+    </row>
+    <row r="10" spans="1:44" ht="16.5">
+      <c r="A10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="26"/>
+    </row>
+    <row r="11" spans="1:44" ht="16.5">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="28"/>
+    </row>
+    <row r="12" spans="1:44" ht="17.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="28"/>
+    </row>
+    <row r="13" spans="1:44" ht="17.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="28"/>
+    </row>
+    <row r="14" spans="1:44" ht="16.5">
+      <c r="A14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="26"/>
+    </row>
+    <row r="15" spans="1:44" ht="16.5">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="28"/>
+    </row>
+    <row r="16" spans="1:44" ht="17.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="38" t="s">
         <v>114</v>
       </c>
@@ -14957,10 +17824,10 @@
     </row>
     <row r="29" spans="1:44" ht="16.5">
       <c r="A29" s="19"/>
-      <c r="C29" s="190" t="s">
+      <c r="C29" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="D29" s="190"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="45" t="s">
         <v>122</v>
       </c>
@@ -15007,8 +17874,8 @@
     <row r="30" spans="1:44" ht="16.5">
       <c r="A30" s="19"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="20" t="s">
         <v>123</v>
       </c>
@@ -15055,8 +17922,8 @@
     <row r="31" spans="1:44" ht="16.5">
       <c r="A31" s="19"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="20" t="s">
         <v>124</v>
       </c>
@@ -15103,8 +17970,8 @@
     <row r="32" spans="1:44" ht="16.5">
       <c r="A32" s="19"/>
       <c r="B32" s="27"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="190"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="20" t="s">
         <v>59</v>
       </c>
@@ -16253,6 +19120,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -16260,191 +19132,186 @@
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="44" width="3.625" customWidth="1"/>
+    <col min="1" max="44" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="16.5">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="182" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="180" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="185" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185" t="s">
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="182" t="s">
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="183"/>
-      <c r="AJ1" s="184"/>
-      <c r="AK1" s="183" t="s">
+      <c r="AH1" s="181"/>
+      <c r="AI1" s="181"/>
+      <c r="AJ1" s="186"/>
+      <c r="AK1" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="183"/>
-      <c r="AM1" s="183"/>
-      <c r="AN1" s="184"/>
-      <c r="AO1" s="182" t="s">
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="181"/>
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="183"/>
-      <c r="AQ1" s="183"/>
-      <c r="AR1" s="186"/>
+      <c r="AP1" s="181"/>
+      <c r="AQ1" s="181"/>
+      <c r="AR1" s="182"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="181"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="133" t="s">
+      <c r="A2" s="189"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="187" t="s">
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="183" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187" t="s">
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="187"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="133" t="s">
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="170" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="139">
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="176">
         <v>42273</v>
       </c>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="140"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="188"/>
+      <c r="AL2" s="176"/>
+      <c r="AM2" s="176"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="176"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="176"/>
+      <c r="AR2" s="184"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="181"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="187"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="187"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="187"/>
-      <c r="AC3" s="187"/>
-      <c r="AD3" s="187"/>
-      <c r="AE3" s="187"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="141"/>
-      <c r="AM3" s="141"/>
-      <c r="AN3" s="142"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="189"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="175"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="178"/>
+      <c r="AN3" s="179"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="185"/>
     </row>
     <row r="4" spans="1:44" ht="16.5">
       <c r="A4" s="19"/>
@@ -18939,6 +21806,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -18946,18 +21818,13 @@
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18965,7 +21832,7 @@
       <selection activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RND/BTN/Use case/Topic-2-UseCase.xlsx
+++ b/RND/BTN/Use case/Topic-2-UseCase.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeHistory" sheetId="1" r:id="rId1"/>
     <sheet name="Cover" sheetId="2" r:id="rId2"/>
-    <sheet name="Manage User" sheetId="3" r:id="rId3"/>
-    <sheet name="Register" sheetId="5" r:id="rId4"/>
-    <sheet name="TuDHM-Login" sheetId="21" r:id="rId5"/>
-    <sheet name="See student status" sheetId="19" r:id="rId6"/>
-    <sheet name="Sort list of students" sheetId="20" r:id="rId7"/>
-    <sheet name="Activity Diagram" sheetId="17" r:id="rId8"/>
+    <sheet name="TuDHM-Test Online" sheetId="22" r:id="rId3"/>
+    <sheet name="Manage User" sheetId="3" r:id="rId4"/>
+    <sheet name="Register" sheetId="5" r:id="rId5"/>
+    <sheet name="TuDHM-Login" sheetId="21" r:id="rId6"/>
+    <sheet name="See student status" sheetId="19" r:id="rId7"/>
+    <sheet name="Sort list of students" sheetId="20" r:id="rId8"/>
+    <sheet name="Activity Diagram" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="181">
   <si>
     <t xml:space="preserve">                                                       Student Project Allocation and Management with Online Testing System (SPM)</t>
   </si>
@@ -501,6 +502,69 @@
   </si>
   <si>
     <t>Hủy thao tác với chức năng đăng nhập khi ấn "hủy bỏ"</t>
+  </si>
+  <si>
+    <t>Tiền điều kiện: Người dùng đã đăng nhập thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>Người dùng thực hiện bài kiểm tra trực tuyến</t>
+  </si>
+  <si>
+    <t>Hệ thống yêu cầu người dùng chọn bài kiểm tra</t>
+  </si>
+  <si>
+    <t>Sau khi người dùng chọn bài kiểm tra, hệ thống hiển thị các dạng câu hỏi và câu trả lời</t>
+  </si>
+  <si>
+    <t>Người dùng trả lời từng câu hỏi bằng cách bấm vào các câu trả lời tương ứng.</t>
+  </si>
+  <si>
+    <t>Tùy vào từng câu hỏi người dùng có thể chọn một hay nhiều đáp án trong 1 câu hỏi</t>
+  </si>
+  <si>
+    <t>Người dùng phải hoàn thành bài kiểm tra trước khi thời gian hết giờ sau đó người dùng bấm nút "submit" để kết thúc bài thi.</t>
+  </si>
+  <si>
+    <t>Nếu hết thời gian quy định mà người dùng chưa hoàn thành bài thi. Hệ thống tự động gửi bài thi của người dùng.</t>
+  </si>
+  <si>
+    <t>Trước khi hết thời gian quy định 10p. Mỗi 5p hệ thống sẽ đưa ra thông báo cảnh báo " Bài thi của bạn sẽ kết thúc sau 10p".</t>
+  </si>
+  <si>
+    <t>Sau khi hoàn thành bài kiểm tra người dùng bấm nút "submit" để kết thúc bài kiểm tra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập vào hệ thống với tài khoản của mình </t>
+  </si>
+  <si>
+    <t>Chọn bài thi và làm bài thi trong thời gian quy định</t>
+  </si>
+  <si>
+    <t>Sau khi hoàn thành bài thi bấm nút "submit" để kết thúc bài thi</t>
+  </si>
+  <si>
+    <t>Sau khi kết thúc bài thi người dùng có thể bấm vào nút "review" để xem đáp án.</t>
+  </si>
+  <si>
+    <t>Yêu cầu về việc thông báo:</t>
+  </si>
+  <si>
+    <t>Màn hình hiển thị  thông báo lỗi nếu người dùng không điền đáp án cho mỗi câu hỏi trước khi thời gian kết thúc.</t>
+  </si>
+  <si>
+    <t>Đưa ra thông báo vào bôi đỏ câu hỏi mà người dùng chưa chọn đáp án</t>
+  </si>
+  <si>
+    <t>Khi thời gian làm bài còn 10p sau mỗi 5p hệ thống đưa ra thông báo cho người dùng.</t>
+  </si>
+  <si>
+    <t>Con trỏ chuột sẽ trỏ vào trường dữ liệu đầu tiên không hợp lệ</t>
+  </si>
+  <si>
+    <t>Sau khi hết thời gian làm bài. Hệ thống đưa ra thông báo người dùng đã hết thời gian làm bài. Và bài làm được gửi lên server.</t>
+  </si>
+  <si>
+    <t>Câu trả lời thông qua các lựa chọn của người dùng</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1254,7 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,6 +1465,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -1459,24 +1595,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1495,64 +1613,25 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,21 +1646,7 @@
     <xf numFmtId="165" fontId="11" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -2303,7 +2368,7 @@
   <dimension ref="A1:BD98"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -2444,176 +2509,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="167" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="169"/>
-      <c r="AM1" s="167" t="s">
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="132"/>
+      <c r="AJ1" s="132"/>
+      <c r="AK1" s="132"/>
+      <c r="AL1" s="133"/>
+      <c r="AM1" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="169"/>
-      <c r="AQ1" s="168" t="s">
+      <c r="AN1" s="132"/>
+      <c r="AO1" s="132"/>
+      <c r="AP1" s="133"/>
+      <c r="AQ1" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="167" t="s">
+      <c r="AR1" s="132"/>
+      <c r="AS1" s="132"/>
+      <c r="AT1" s="133"/>
+      <c r="AU1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="AV1" s="168"/>
-      <c r="AW1" s="168"/>
-      <c r="AX1" s="169"/>
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="133"/>
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="172"/>
-      <c r="AM2" s="170" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="172"/>
-      <c r="AQ2" s="176">
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="140">
         <v>42273</v>
       </c>
-      <c r="AR2" s="176"/>
-      <c r="AS2" s="176"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="176"/>
-      <c r="AV2" s="176"/>
-      <c r="AW2" s="176"/>
-      <c r="AX2" s="177"/>
+      <c r="AR2" s="140"/>
+      <c r="AS2" s="140"/>
+      <c r="AT2" s="141"/>
+      <c r="AU2" s="140"/>
+      <c r="AV2" s="140"/>
+      <c r="AW2" s="140"/>
+      <c r="AX2" s="141"/>
     </row>
     <row r="3" spans="1:50" ht="15" customHeight="1">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="174"/>
-      <c r="P3" s="174"/>
-      <c r="Q3" s="174"/>
-      <c r="R3" s="174"/>
-      <c r="S3" s="174"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="174"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="174"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="174"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="174"/>
-      <c r="AL3" s="175"/>
-      <c r="AM3" s="173"/>
-      <c r="AN3" s="174"/>
-      <c r="AO3" s="174"/>
-      <c r="AP3" s="175"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="178"/>
-      <c r="AS3" s="178"/>
-      <c r="AT3" s="179"/>
-      <c r="AU3" s="178"/>
-      <c r="AV3" s="178"/>
-      <c r="AW3" s="178"/>
-      <c r="AX3" s="179"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="137"/>
+      <c r="AN3" s="138"/>
+      <c r="AO3" s="138"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="142"/>
+      <c r="AX3" s="143"/>
     </row>
     <row r="4" spans="1:50" ht="15" customHeight="1">
       <c r="A4" s="15"/>
@@ -2881,8 +2946,8 @@
       <c r="AW8" s="16"/>
       <c r="AX8" s="17"/>
     </row>
-    <row r="9" spans="1:50" s="131" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="130" t="s">
+    <row r="9" spans="1:50" s="155" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="154" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3160,32 +3225,32 @@
       <c r="C15" s="61">
         <v>1</v>
       </c>
-      <c r="D15" s="163" t="s">
+      <c r="D15" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="163" t="s">
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="164"/>
-      <c r="X15" s="164"/>
-      <c r="Y15" s="165"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="146"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
@@ -3218,32 +3283,32 @@
       <c r="C16" s="61">
         <v>2</v>
       </c>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="164"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="164"/>
-      <c r="K16" s="165"/>
-      <c r="L16" s="163" t="s">
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="164"/>
-      <c r="N16" s="164"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="164"/>
-      <c r="Q16" s="164"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="165"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="146"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
       <c r="AB16" s="16"/>
@@ -3699,53 +3764,53 @@
       <c r="B25" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="162" t="s">
+      <c r="C25" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162" t="s">
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162" t="s">
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="162"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="162"/>
-      <c r="AJ25" s="162"/>
-      <c r="AK25" s="162"/>
-      <c r="AL25" s="162"/>
-      <c r="AM25" s="162"/>
-      <c r="AN25" s="162"/>
-      <c r="AO25" s="162"/>
-      <c r="AP25" s="162"/>
-      <c r="AQ25" s="162"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="153"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="153"/>
+      <c r="AD25" s="153"/>
+      <c r="AE25" s="153"/>
+      <c r="AF25" s="153"/>
+      <c r="AG25" s="153"/>
+      <c r="AH25" s="153"/>
+      <c r="AI25" s="153"/>
+      <c r="AJ25" s="153"/>
+      <c r="AK25" s="153"/>
+      <c r="AL25" s="153"/>
+      <c r="AM25" s="153"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="153"/>
+      <c r="AP25" s="153"/>
+      <c r="AQ25" s="153"/>
       <c r="AR25" s="62"/>
       <c r="AS25" s="62"/>
       <c r="AT25" s="16"/>
@@ -3759,13 +3824,13 @@
       <c r="B26" s="71">
         <v>1</v>
       </c>
-      <c r="C26" s="156" t="s">
+      <c r="C26" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="158"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="72" t="s">
         <v>26</v>
       </c>
@@ -3778,34 +3843,34 @@
       <c r="O26" s="73"/>
       <c r="P26" s="73"/>
       <c r="Q26" s="73"/>
-      <c r="R26" s="159" t="s">
+      <c r="R26" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="160"/>
-      <c r="AO26" s="160"/>
-      <c r="AP26" s="160"/>
-      <c r="AQ26" s="161"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="178"/>
+      <c r="AF26" s="178"/>
+      <c r="AG26" s="178"/>
+      <c r="AH26" s="178"/>
+      <c r="AI26" s="178"/>
+      <c r="AJ26" s="178"/>
+      <c r="AK26" s="178"/>
+      <c r="AL26" s="178"/>
+      <c r="AM26" s="178"/>
+      <c r="AN26" s="178"/>
+      <c r="AO26" s="178"/>
+      <c r="AP26" s="178"/>
+      <c r="AQ26" s="179"/>
       <c r="AR26" s="20"/>
       <c r="AS26" s="20"/>
       <c r="AT26" s="16"/>
@@ -3819,13 +3884,13 @@
       <c r="B27" s="75">
         <v>2</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="152"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="76" t="s">
         <v>27</v>
       </c>
@@ -3838,34 +3903,34 @@
       <c r="O27" s="77"/>
       <c r="P27" s="77"/>
       <c r="Q27" s="77"/>
-      <c r="R27" s="153" t="s">
+      <c r="R27" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="S27" s="154"/>
-      <c r="T27" s="154"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="154"/>
-      <c r="W27" s="154"/>
-      <c r="X27" s="154"/>
-      <c r="Y27" s="154"/>
-      <c r="Z27" s="154"/>
-      <c r="AA27" s="154"/>
-      <c r="AB27" s="154"/>
-      <c r="AC27" s="154"/>
-      <c r="AD27" s="154"/>
-      <c r="AE27" s="154"/>
-      <c r="AF27" s="154"/>
-      <c r="AG27" s="154"/>
-      <c r="AH27" s="154"/>
-      <c r="AI27" s="154"/>
-      <c r="AJ27" s="154"/>
-      <c r="AK27" s="154"/>
-      <c r="AL27" s="154"/>
-      <c r="AM27" s="154"/>
-      <c r="AN27" s="154"/>
-      <c r="AO27" s="154"/>
-      <c r="AP27" s="154"/>
-      <c r="AQ27" s="155"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="152"/>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16"/>
       <c r="AT27" s="16"/>
@@ -3879,13 +3944,13 @@
       <c r="B28" s="75">
         <v>3</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="152"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="76" t="s">
         <v>28</v>
       </c>
@@ -3898,34 +3963,34 @@
       <c r="O28" s="77"/>
       <c r="P28" s="77"/>
       <c r="Q28" s="77"/>
-      <c r="R28" s="153" t="s">
+      <c r="R28" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="154"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="154"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="155"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="151"/>
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="151"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="152"/>
       <c r="AR28" s="16"/>
       <c r="AS28" s="16"/>
       <c r="AT28" s="20"/>
@@ -3939,13 +4004,13 @@
       <c r="B29" s="75">
         <v>4</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="152"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="149"/>
       <c r="H29" s="76" t="s">
         <v>29</v>
       </c>
@@ -3958,34 +4023,34 @@
       <c r="O29" s="77"/>
       <c r="P29" s="77"/>
       <c r="Q29" s="77"/>
-      <c r="R29" s="153" t="s">
+      <c r="R29" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="S29" s="154"/>
-      <c r="T29" s="154"/>
-      <c r="U29" s="154"/>
-      <c r="V29" s="154"/>
-      <c r="W29" s="154"/>
-      <c r="X29" s="154"/>
-      <c r="Y29" s="154"/>
-      <c r="Z29" s="154"/>
-      <c r="AA29" s="154"/>
-      <c r="AB29" s="154"/>
-      <c r="AC29" s="154"/>
-      <c r="AD29" s="154"/>
-      <c r="AE29" s="154"/>
-      <c r="AF29" s="154"/>
-      <c r="AG29" s="154"/>
-      <c r="AH29" s="154"/>
-      <c r="AI29" s="154"/>
-      <c r="AJ29" s="154"/>
-      <c r="AK29" s="154"/>
-      <c r="AL29" s="154"/>
-      <c r="AM29" s="154"/>
-      <c r="AN29" s="154"/>
-      <c r="AO29" s="154"/>
-      <c r="AP29" s="154"/>
-      <c r="AQ29" s="155"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="151"/>
+      <c r="AE29" s="151"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="151"/>
+      <c r="AJ29" s="151"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="151"/>
+      <c r="AM29" s="151"/>
+      <c r="AN29" s="151"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
+      <c r="AQ29" s="152"/>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16"/>
       <c r="AT29" s="20"/>
@@ -3999,13 +4064,13 @@
       <c r="B30" s="75">
         <v>5</v>
       </c>
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="147" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="152"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
       <c r="H30" s="76" t="s">
         <v>30</v>
       </c>
@@ -4018,34 +4083,34 @@
       <c r="O30" s="77"/>
       <c r="P30" s="77"/>
       <c r="Q30" s="77"/>
-      <c r="R30" s="153" t="s">
+      <c r="R30" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="S30" s="154"/>
-      <c r="T30" s="154"/>
-      <c r="U30" s="154"/>
-      <c r="V30" s="154"/>
-      <c r="W30" s="154"/>
-      <c r="X30" s="154"/>
-      <c r="Y30" s="154"/>
-      <c r="Z30" s="154"/>
-      <c r="AA30" s="154"/>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="154"/>
-      <c r="AD30" s="154"/>
-      <c r="AE30" s="154"/>
-      <c r="AF30" s="154"/>
-      <c r="AG30" s="154"/>
-      <c r="AH30" s="154"/>
-      <c r="AI30" s="154"/>
-      <c r="AJ30" s="154"/>
-      <c r="AK30" s="154"/>
-      <c r="AL30" s="154"/>
-      <c r="AM30" s="154"/>
-      <c r="AN30" s="154"/>
-      <c r="AO30" s="154"/>
-      <c r="AP30" s="154"/>
-      <c r="AQ30" s="155"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="151"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="151"/>
+      <c r="AJ30" s="151"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="151"/>
+      <c r="AM30" s="151"/>
+      <c r="AN30" s="151"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
+      <c r="AQ30" s="152"/>
       <c r="AR30" s="16"/>
       <c r="AS30" s="16"/>
       <c r="AT30" s="20"/>
@@ -4059,13 +4124,13 @@
       <c r="B31" s="75">
         <v>6</v>
       </c>
-      <c r="C31" s="150" t="s">
+      <c r="C31" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="152"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="76" t="s">
         <v>31</v>
       </c>
@@ -4078,34 +4143,34 @@
       <c r="O31" s="77"/>
       <c r="P31" s="77"/>
       <c r="Q31" s="77"/>
-      <c r="R31" s="153" t="s">
+      <c r="R31" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="154"/>
-      <c r="T31" s="154"/>
-      <c r="U31" s="154"/>
-      <c r="V31" s="154"/>
-      <c r="W31" s="154"/>
-      <c r="X31" s="154"/>
-      <c r="Y31" s="154"/>
-      <c r="Z31" s="154"/>
-      <c r="AA31" s="154"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="154"/>
-      <c r="AD31" s="154"/>
-      <c r="AE31" s="154"/>
-      <c r="AF31" s="154"/>
-      <c r="AG31" s="154"/>
-      <c r="AH31" s="154"/>
-      <c r="AI31" s="154"/>
-      <c r="AJ31" s="154"/>
-      <c r="AK31" s="154"/>
-      <c r="AL31" s="154"/>
-      <c r="AM31" s="154"/>
-      <c r="AN31" s="154"/>
-      <c r="AO31" s="154"/>
-      <c r="AP31" s="154"/>
-      <c r="AQ31" s="155"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="151"/>
+      <c r="AB31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="151"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="151"/>
+      <c r="AJ31" s="151"/>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="151"/>
+      <c r="AN31" s="151"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
+      <c r="AQ31" s="152"/>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16"/>
       <c r="AT31" s="20"/>
@@ -4119,13 +4184,13 @@
       <c r="B32" s="79">
         <v>7</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="134"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="80" t="s">
         <v>32</v>
       </c>
@@ -4138,34 +4203,34 @@
       <c r="O32" s="81"/>
       <c r="P32" s="81"/>
       <c r="Q32" s="81"/>
-      <c r="R32" s="135" t="s">
+      <c r="R32" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="S32" s="136"/>
-      <c r="T32" s="136"/>
-      <c r="U32" s="136"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="136"/>
-      <c r="Y32" s="136"/>
-      <c r="Z32" s="136"/>
-      <c r="AA32" s="136"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="136"/>
-      <c r="AD32" s="136"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="136"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="136"/>
-      <c r="AJ32" s="136"/>
-      <c r="AK32" s="136"/>
-      <c r="AL32" s="136"/>
-      <c r="AM32" s="136"/>
-      <c r="AN32" s="136"/>
-      <c r="AO32" s="136"/>
-      <c r="AP32" s="136"/>
-      <c r="AQ32" s="137"/>
+      <c r="S32" s="160"/>
+      <c r="T32" s="160"/>
+      <c r="U32" s="160"/>
+      <c r="V32" s="160"/>
+      <c r="W32" s="160"/>
+      <c r="X32" s="160"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="160"/>
+      <c r="AC32" s="160"/>
+      <c r="AD32" s="160"/>
+      <c r="AE32" s="160"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="160"/>
+      <c r="AJ32" s="160"/>
+      <c r="AK32" s="160"/>
+      <c r="AL32" s="160"/>
+      <c r="AM32" s="160"/>
+      <c r="AN32" s="160"/>
+      <c r="AO32" s="160"/>
+      <c r="AP32" s="160"/>
+      <c r="AQ32" s="161"/>
       <c r="AR32" s="16"/>
       <c r="AS32" s="16"/>
       <c r="AT32" s="20"/>
@@ -4239,13 +4304,13 @@
       <c r="B34" s="94">
         <v>9</v>
       </c>
-      <c r="C34" s="138" t="s">
+      <c r="C34" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="140"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="164"/>
       <c r="H34" s="87" t="s">
         <v>33</v>
       </c>
@@ -4258,34 +4323,34 @@
       <c r="O34" s="95"/>
       <c r="P34" s="95"/>
       <c r="Q34" s="95"/>
-      <c r="R34" s="147" t="s">
+      <c r="R34" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="148"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="148"/>
-      <c r="V34" s="148"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="148"/>
-      <c r="Y34" s="148"/>
-      <c r="Z34" s="148"/>
-      <c r="AA34" s="148"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="148"/>
-      <c r="AD34" s="148"/>
-      <c r="AE34" s="148"/>
-      <c r="AF34" s="148"/>
-      <c r="AG34" s="148"/>
-      <c r="AH34" s="148"/>
-      <c r="AI34" s="148"/>
-      <c r="AJ34" s="148"/>
-      <c r="AK34" s="148"/>
-      <c r="AL34" s="148"/>
-      <c r="AM34" s="148"/>
-      <c r="AN34" s="148"/>
-      <c r="AO34" s="148"/>
-      <c r="AP34" s="148"/>
-      <c r="AQ34" s="149"/>
+      <c r="S34" s="172"/>
+      <c r="T34" s="172"/>
+      <c r="U34" s="172"/>
+      <c r="V34" s="172"/>
+      <c r="W34" s="172"/>
+      <c r="X34" s="172"/>
+      <c r="Y34" s="172"/>
+      <c r="Z34" s="172"/>
+      <c r="AA34" s="172"/>
+      <c r="AB34" s="172"/>
+      <c r="AC34" s="172"/>
+      <c r="AD34" s="172"/>
+      <c r="AE34" s="172"/>
+      <c r="AF34" s="172"/>
+      <c r="AG34" s="172"/>
+      <c r="AH34" s="172"/>
+      <c r="AI34" s="172"/>
+      <c r="AJ34" s="172"/>
+      <c r="AK34" s="172"/>
+      <c r="AL34" s="172"/>
+      <c r="AM34" s="172"/>
+      <c r="AN34" s="172"/>
+      <c r="AO34" s="172"/>
+      <c r="AP34" s="172"/>
+      <c r="AQ34" s="173"/>
       <c r="AR34" s="16"/>
       <c r="AS34" s="16"/>
       <c r="AT34" s="16"/>
@@ -4890,16 +4955,16 @@
       <c r="AI45" s="112"/>
       <c r="AJ45" s="112"/>
       <c r="AK45" s="113"/>
-      <c r="AL45" s="141"/>
-      <c r="AM45" s="142"/>
-      <c r="AN45" s="143" t="s">
+      <c r="AL45" s="165"/>
+      <c r="AM45" s="166"/>
+      <c r="AN45" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="AO45" s="144"/>
-      <c r="AP45" s="141"/>
-      <c r="AQ45" s="145"/>
-      <c r="AR45" s="145"/>
-      <c r="AS45" s="146"/>
+      <c r="AO45" s="168"/>
+      <c r="AP45" s="165"/>
+      <c r="AQ45" s="169"/>
+      <c r="AR45" s="169"/>
+      <c r="AS45" s="170"/>
       <c r="AT45" s="16"/>
       <c r="AU45" s="54"/>
       <c r="AV45" s="54"/>
@@ -7822,26 +7887,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="G2:AL3"/>
-    <mergeCell ref="AM2:AP3"/>
-    <mergeCell ref="AQ2:AT3"/>
-    <mergeCell ref="AU2:AX3"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="L15:Y15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="L16:Y16"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="R27:AQ27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="R28:AQ28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:Q25"/>
-    <mergeCell ref="R25:AQ25"/>
     <mergeCell ref="A9:XFD9"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="R32:AQ32"/>
@@ -7858,6 +7903,26 @@
     <mergeCell ref="R31:AQ31"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="R26:AQ26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="R28:AQ28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:Q25"/>
+    <mergeCell ref="R25:AQ25"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="L15:Y15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="L16:Y16"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="R27:AQ27"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="G2:AL3"/>
+    <mergeCell ref="AM2:AP3"/>
+    <mergeCell ref="AQ2:AT3"/>
+    <mergeCell ref="AU2:AX3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B20" location="'Activity Diagram'!A1" display="Biểu đồ hoạt động Test Online"/>
@@ -7898,6 +7963,2810 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" ht="16.5">
+      <c r="A1" s="180" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="183" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="183" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="184" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="183" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="187"/>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="182"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="188" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
+        <v>42274</v>
+      </c>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="189"/>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="182"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="190"/>
+    </row>
+    <row r="4" spans="1:44" ht="16.5">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="21"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="21"/>
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="21"/>
+      <c r="AQ4" s="21"/>
+      <c r="AR4" s="22"/>
+    </row>
+    <row r="5" spans="1:44" ht="16.5">
+      <c r="A5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="26"/>
+    </row>
+    <row r="6" spans="1:44" ht="16.5">
+      <c r="A6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="28"/>
+    </row>
+    <row r="7" spans="1:44" ht="16.5">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="31"/>
+    </row>
+    <row r="8" spans="1:44" ht="16.5">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="31"/>
+    </row>
+    <row r="9" spans="1:44" ht="16.5">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="31"/>
+    </row>
+    <row r="10" spans="1:44" ht="16.5">
+      <c r="A10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="26"/>
+    </row>
+    <row r="11" spans="1:44" ht="16.5">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="28"/>
+    </row>
+    <row r="12" spans="1:44" ht="17.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="28"/>
+    </row>
+    <row r="13" spans="1:44" ht="17.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="28"/>
+    </row>
+    <row r="14" spans="1:44" ht="16.5">
+      <c r="A14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="26"/>
+    </row>
+    <row r="15" spans="1:44" ht="16.5">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="20"/>
+      <c r="AM15" s="20"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="28"/>
+    </row>
+    <row r="16" spans="1:44" ht="17.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="28"/>
+    </row>
+    <row r="17" spans="1:44" ht="17.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="39">
+        <v>3.2</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="28"/>
+    </row>
+    <row r="18" spans="1:44" ht="17.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="39">
+        <v>3.3</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="28"/>
+    </row>
+    <row r="19" spans="1:44" ht="17.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="28"/>
+    </row>
+    <row r="20" spans="1:44" ht="17.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="39">
+        <v>3.5</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="28"/>
+    </row>
+    <row r="21" spans="1:44" ht="17.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="28"/>
+    </row>
+    <row r="22" spans="1:44" ht="17.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="28"/>
+    </row>
+    <row r="23" spans="1:44" ht="16.5">
+      <c r="A23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="26"/>
+    </row>
+    <row r="24" spans="1:44" ht="17.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="28"/>
+    </row>
+    <row r="25" spans="1:44" ht="16.5">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="191">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D25" s="191"/>
+      <c r="E25" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="28"/>
+    </row>
+    <row r="26" spans="1:44" ht="17.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="191">
+        <v>4.2</v>
+      </c>
+      <c r="D26" s="191"/>
+      <c r="E26" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="28"/>
+    </row>
+    <row r="27" spans="1:44" ht="17.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="191">
+        <v>4.3</v>
+      </c>
+      <c r="D27" s="191"/>
+      <c r="E27" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="28"/>
+    </row>
+    <row r="28" spans="1:44" ht="17.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="191">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D28" s="191"/>
+      <c r="E28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="28"/>
+    </row>
+    <row r="29" spans="1:44" ht="16.5">
+      <c r="A29" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="26"/>
+    </row>
+    <row r="30" spans="1:44" ht="17.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="28"/>
+    </row>
+    <row r="31" spans="1:44" ht="16.5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="28"/>
+    </row>
+    <row r="32" spans="1:44" ht="16.5">
+      <c r="A32" s="19"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="28"/>
+    </row>
+    <row r="33" spans="1:44" ht="16.5">
+      <c r="A33" s="19"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="28"/>
+    </row>
+    <row r="34" spans="1:44" ht="16.5">
+      <c r="A34" s="19"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="28"/>
+    </row>
+    <row r="35" spans="1:44" ht="16.5">
+      <c r="A35" s="19"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="28"/>
+    </row>
+    <row r="36" spans="1:44" ht="16.5">
+      <c r="A36" s="19"/>
+      <c r="B36" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
+      <c r="AR36" s="28"/>
+    </row>
+    <row r="37" spans="1:44" ht="16.5">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="28"/>
+    </row>
+    <row r="38" spans="1:44" ht="16.5">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="28"/>
+    </row>
+    <row r="39" spans="1:44" ht="16.5">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="28"/>
+    </row>
+    <row r="40" spans="1:44" ht="16.5">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="28"/>
+    </row>
+    <row r="41" spans="1:44" ht="16.5">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="20"/>
+      <c r="AR41" s="28"/>
+    </row>
+    <row r="42" spans="1:44" ht="16.5">
+      <c r="A42" s="19"/>
+      <c r="B42" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="20"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AQ42" s="20"/>
+      <c r="AR42" s="28"/>
+    </row>
+    <row r="43" spans="1:44" ht="16.5">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="28"/>
+    </row>
+    <row r="44" spans="1:44" ht="16.5">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="20"/>
+      <c r="AR44" s="28"/>
+    </row>
+    <row r="45" spans="1:44" ht="16.5">
+      <c r="A45" s="19"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="28"/>
+    </row>
+    <row r="46" spans="1:44" ht="16.5">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="28"/>
+    </row>
+    <row r="47" spans="1:44" ht="16.5">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20"/>
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20"/>
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20"/>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="28"/>
+    </row>
+    <row r="48" spans="1:44" ht="16.5">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
+      <c r="AE48" s="20"/>
+      <c r="AF48" s="20"/>
+      <c r="AG48" s="20"/>
+      <c r="AH48" s="20"/>
+      <c r="AI48" s="20"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="28"/>
+    </row>
+    <row r="49" spans="1:44" ht="16.5">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
+      <c r="AE49" s="20"/>
+      <c r="AF49" s="20"/>
+      <c r="AG49" s="20"/>
+      <c r="AH49" s="20"/>
+      <c r="AI49" s="20"/>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="20"/>
+      <c r="AM49" s="20"/>
+      <c r="AN49" s="20"/>
+      <c r="AO49" s="20"/>
+      <c r="AP49" s="20"/>
+      <c r="AQ49" s="20"/>
+      <c r="AR49" s="28"/>
+    </row>
+    <row r="50" spans="1:44" ht="16.5">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
+      <c r="AN50" s="20"/>
+      <c r="AO50" s="20"/>
+      <c r="AP50" s="20"/>
+      <c r="AQ50" s="20"/>
+      <c r="AR50" s="28"/>
+    </row>
+    <row r="51" spans="1:44" ht="16.5">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20"/>
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20"/>
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20"/>
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="28"/>
+    </row>
+    <row r="52" spans="1:44" ht="16.5">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
+      <c r="AE52" s="20"/>
+      <c r="AF52" s="20"/>
+      <c r="AG52" s="20"/>
+      <c r="AH52" s="20"/>
+      <c r="AI52" s="20"/>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="20"/>
+      <c r="AM52" s="20"/>
+      <c r="AN52" s="20"/>
+      <c r="AO52" s="20"/>
+      <c r="AP52" s="20"/>
+      <c r="AQ52" s="20"/>
+      <c r="AR52" s="28"/>
+    </row>
+    <row r="53" spans="1:44" ht="16.5">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="20"/>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
+      <c r="AF53" s="20"/>
+      <c r="AG53" s="20"/>
+      <c r="AH53" s="20"/>
+      <c r="AI53" s="20"/>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="20"/>
+      <c r="AM53" s="20"/>
+      <c r="AN53" s="20"/>
+      <c r="AO53" s="20"/>
+      <c r="AP53" s="20"/>
+      <c r="AQ53" s="20"/>
+      <c r="AR53" s="28"/>
+    </row>
+    <row r="54" spans="1:44" ht="16.5">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="20"/>
+      <c r="AD54" s="20"/>
+      <c r="AE54" s="20"/>
+      <c r="AF54" s="20"/>
+      <c r="AG54" s="20"/>
+      <c r="AH54" s="20"/>
+      <c r="AI54" s="20"/>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="20"/>
+      <c r="AM54" s="20"/>
+      <c r="AN54" s="20"/>
+      <c r="AO54" s="20"/>
+      <c r="AP54" s="20"/>
+      <c r="AQ54" s="20"/>
+      <c r="AR54" s="28"/>
+    </row>
+    <row r="55" spans="1:44" ht="16.5">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="28"/>
+    </row>
+    <row r="56" spans="1:44" ht="16.5">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="20"/>
+      <c r="AO56" s="20"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="20"/>
+      <c r="AR56" s="28"/>
+    </row>
+    <row r="57" spans="1:44" ht="16.5">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
+      <c r="AG57" s="20"/>
+      <c r="AH57" s="20"/>
+      <c r="AI57" s="20"/>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="20"/>
+      <c r="AM57" s="20"/>
+      <c r="AN57" s="20"/>
+      <c r="AO57" s="20"/>
+      <c r="AP57" s="20"/>
+      <c r="AQ57" s="20"/>
+      <c r="AR57" s="28"/>
+    </row>
+    <row r="58" spans="1:44" ht="17.25" thickBot="1">
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="47"/>
+      <c r="T58" s="47"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="47"/>
+      <c r="Z58" s="47"/>
+      <c r="AA58" s="47"/>
+      <c r="AB58" s="47"/>
+      <c r="AC58" s="47"/>
+      <c r="AD58" s="47"/>
+      <c r="AE58" s="47"/>
+      <c r="AF58" s="47"/>
+      <c r="AG58" s="47"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="47"/>
+      <c r="AJ58" s="47"/>
+      <c r="AK58" s="47"/>
+      <c r="AL58" s="47"/>
+      <c r="AM58" s="47"/>
+      <c r="AN58" s="47"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="47"/>
+      <c r="AQ58" s="47"/>
+      <c r="AR58" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="G2:K3"/>
+    <mergeCell ref="L2:S3"/>
+    <mergeCell ref="T2:AF3"/>
+    <mergeCell ref="AG2:AJ3"/>
+    <mergeCell ref="AK2:AN3"/>
+    <mergeCell ref="AO2:AR3"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AK1:AN1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR56"/>
   <sheetViews>
@@ -8043,166 +10912,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="18" customFormat="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="180" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="190" t="s">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190" t="s">
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="180" t="s">
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="181" t="s">
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="182"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="187"/>
     </row>
     <row r="2" spans="1:44" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="183" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="170" t="s">
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="176">
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
         <v>42273</v>
       </c>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="184"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="189"/>
     </row>
     <row r="3" spans="1:44" s="18" customFormat="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="179"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="185"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="190"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="19"/>
@@ -10710,11 +13579,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -10723,6 +13587,11 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -10730,7 +13599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR58"/>
   <sheetViews>
@@ -10876,166 +13745,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="18" customFormat="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="180" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="190" t="s">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190" t="s">
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="180" t="s">
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="181" t="s">
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="182"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="187"/>
     </row>
     <row r="2" spans="1:44" s="18" customFormat="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="183" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="170" t="s">
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="176">
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
         <v>42273</v>
       </c>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="184"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="189"/>
     </row>
     <row r="3" spans="1:44" s="18" customFormat="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="179"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="185"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="190"/>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" s="19"/>
@@ -13641,11 +16510,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -13654,183 +16518,188 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:44" ht="16.5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="180" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="190" t="s">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190" t="s">
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="180" t="s">
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="181" t="s">
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="182"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="187"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="189"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="183" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="170" t="s">
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="176">
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
         <v>42274</v>
       </c>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="184"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="189"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="189"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="179"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="185"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="190"/>
     </row>
     <row r="4" spans="1:44" ht="16.5">
       <c r="A4" s="19"/>
@@ -15508,7 +18377,7 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
@@ -16438,6 +19307,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -16445,11 +19319,6 @@
     <mergeCell ref="AG2:AJ3"/>
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AK1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16457,7 +19326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR56"/>
   <sheetViews>
@@ -16471,166 +19340,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="16.5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="180" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="190" t="s">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190" t="s">
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="180" t="s">
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="181" t="s">
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="182"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="187"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="189"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="183" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="170" t="s">
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="176">
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
         <v>42273</v>
       </c>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="184"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="189"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="189"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="179"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="185"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="190"/>
     </row>
     <row r="4" spans="1:44" ht="16.5">
       <c r="A4" s="19"/>
@@ -19120,11 +21989,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -19133,12 +21997,17 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR56"/>
   <sheetViews>
@@ -19152,166 +22021,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="16.5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="180" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="190" t="s">
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190" t="s">
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="180" t="s">
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="181"/>
-      <c r="AJ1" s="186"/>
-      <c r="AK1" s="181" t="s">
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="184"/>
+      <c r="AJ1" s="185"/>
+      <c r="AK1" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="181"/>
-      <c r="AM1" s="181"/>
-      <c r="AN1" s="186"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AL1" s="184"/>
+      <c r="AM1" s="184"/>
+      <c r="AN1" s="185"/>
+      <c r="AO1" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="181"/>
-      <c r="AQ1" s="181"/>
-      <c r="AR1" s="182"/>
+      <c r="AP1" s="184"/>
+      <c r="AQ1" s="184"/>
+      <c r="AR1" s="187"/>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="189"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="170" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="183" t="s">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183" t="s">
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188" t="s">
         <v>98</v>
       </c>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="170" t="s">
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="176">
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="140">
         <v>42273</v>
       </c>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="184"/>
+      <c r="AL2" s="140"/>
+      <c r="AM2" s="140"/>
+      <c r="AN2" s="141"/>
+      <c r="AO2" s="140"/>
+      <c r="AP2" s="140"/>
+      <c r="AQ2" s="140"/>
+      <c r="AR2" s="189"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="189"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="173"/>
-      <c r="AH3" s="174"/>
-      <c r="AI3" s="174"/>
-      <c r="AJ3" s="175"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="178"/>
-      <c r="AM3" s="178"/>
-      <c r="AN3" s="179"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="185"/>
+      <c r="A3" s="182"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="188"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="188"/>
+      <c r="S3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="188"/>
+      <c r="V3" s="188"/>
+      <c r="W3" s="188"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="188"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="188"/>
+      <c r="AD3" s="188"/>
+      <c r="AE3" s="188"/>
+      <c r="AF3" s="188"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="190"/>
     </row>
     <row r="4" spans="1:44" ht="16.5">
       <c r="A4" s="19"/>
@@ -21806,11 +24675,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="G2:K3"/>
     <mergeCell ref="L2:S3"/>
@@ -21819,12 +24683,17 @@
     <mergeCell ref="AK2:AN3"/>
     <mergeCell ref="AO2:AR3"/>
     <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
